--- a/REGULAR/OJT/NEW DONE/NAVARRO, RITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/NAVARRO, RITA.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5404C3-22BE-4697-8424-B892CCFA412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
   <si>
     <t>PERIOD</t>
   </si>
@@ -445,19 +443,52 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>9/8,9/2022</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>12/20,21,23,28,29</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -848,6 +879,9 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -884,7 +918,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -915,7 +949,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -932,7 +966,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -947,7 +981,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -989,7 +1023,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1049,7 +1083,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1062,7 +1096,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1077,7 +1111,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1095,7 +1129,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1112,7 +1146,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1131,7 +1165,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1148,7 +1182,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1164,7 +1198,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1181,7 +1215,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1200,7 +1234,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1217,7 +1251,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1233,7 +1267,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1290,7 +1324,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1335,7 +1369,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1378,7 +1412,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1442,7 +1476,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1536,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1602,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1631,7 +1665,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1729,7 +1763,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1788,7 +1822,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1887,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1930,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1971,7 +2005,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2191,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2257,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2281,7 +2315,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2381,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2437,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2478,7 +2512,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2521,7 +2555,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2621,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2643,7 +2677,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2741,7 +2775,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2838,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2887,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2870,25 +2904,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K315" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K394" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2900,13 +2934,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2915,14 +2949,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3219,14 +3253,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3236,7 +3270,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3244,19 +3278,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K315"/>
+  <dimension ref="A2:K394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A297" activePane="bottomLeft"/>
-      <selection activeCell="E4" sqref="E4"/>
-      <selection pane="bottomLeft" activeCell="K311" sqref="K311"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="3888" topLeftCell="A308"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3271,64 +3305,70 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="56"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
+      <c r="B3" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="61"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="60"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
+      <c r="B4" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
+      <c r="F4" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="62"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3336,7 +3376,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3349,24 +3389,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3401,7 +3441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3409,8 +3449,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>108.75899999999996</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>105.25899999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3419,13 +3459,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>229.125</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>237.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3447,27 +3487,28 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
-        <v>37865</v>
+        <v>37880</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>0.625</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.625</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <f>EDATE(A11,1)</f>
         <v>37895</v>
       </c>
       <c r="B12" s="20"/>
@@ -3486,9 +3527,8 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A14" si="0">EDATE(A12,1)</f>
         <v>37926</v>
       </c>
       <c r="B13" s="20"/>
@@ -3507,9 +3547,8 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f t="shared" si="0"/>
         <v>37956</v>
       </c>
       <c r="B14" s="20"/>
@@ -3528,7 +3567,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -3546,7 +3585,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>37987</v>
       </c>
@@ -3566,7 +3605,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>38018</v>
@@ -3587,9 +3626,9 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <f t="shared" ref="A18:A27" si="1">EDATE(A17,1)</f>
+        <f t="shared" ref="A18:A27" si="0">EDATE(A17,1)</f>
         <v>38047</v>
       </c>
       <c r="B18" s="20"/>
@@ -3608,9 +3647,9 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38078</v>
       </c>
       <c r="B19" s="20"/>
@@ -3629,9 +3668,9 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38108</v>
       </c>
       <c r="B20" s="20"/>
@@ -3650,9 +3689,9 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38139</v>
       </c>
       <c r="B21" s="20"/>
@@ -3671,9 +3710,9 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38169</v>
       </c>
       <c r="B22" s="20"/>
@@ -3692,9 +3731,9 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38200</v>
       </c>
       <c r="B23" s="20"/>
@@ -3713,9 +3752,9 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38231</v>
       </c>
       <c r="B24" s="20"/>
@@ -3734,9 +3773,9 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38261</v>
       </c>
       <c r="B25" s="20"/>
@@ -3755,9 +3794,9 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38292</v>
       </c>
       <c r="B26" s="20"/>
@@ -3776,9 +3815,9 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38322</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -3801,7 +3840,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>45</v>
       </c>
@@ -3819,7 +3858,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>38353</v>
       </c>
@@ -3839,7 +3878,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>38384</v>
@@ -3860,9 +3899,9 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <f t="shared" ref="A31:A41" si="2">EDATE(A30,1)</f>
+        <f t="shared" ref="A31:A41" si="1">EDATE(A30,1)</f>
         <v>38412</v>
       </c>
       <c r="B31" s="20"/>
@@ -3881,9 +3920,9 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38443</v>
       </c>
       <c r="B32" s="20"/>
@@ -3902,9 +3941,9 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38473</v>
       </c>
       <c r="B33" s="20"/>
@@ -3923,9 +3962,9 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38504</v>
       </c>
       <c r="B34" s="20"/>
@@ -3944,9 +3983,9 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38534</v>
       </c>
       <c r="B35" s="20"/>
@@ -3965,9 +4004,9 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38565</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -3990,9 +4029,9 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38596</v>
       </c>
       <c r="B37" s="20" t="s">
@@ -4015,9 +4054,9 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38626</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -4038,7 +4077,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4060,7 +4099,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>38657</v>
@@ -4081,20 +4120,16 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38687</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>46</v>
-      </c>
+      <c r="B41" s="20"/>
       <c r="C41" s="13">
         <v>1.25</v>
       </c>
-      <c r="D41" s="39">
-        <v>5</v>
-      </c>
+      <c r="D41" s="39"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
@@ -4106,7 +4141,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="48" t="s">
         <v>52</v>
       </c>
@@ -4124,7 +4159,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>38718</v>
       </c>
@@ -4146,7 +4181,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4164,7 +4199,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f>EDATE(A43,1)</f>
         <v>38749</v>
@@ -4185,9 +4220,9 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <f t="shared" ref="A46:A55" si="3">EDATE(A45,1)</f>
+        <f t="shared" ref="A46:A55" si="2">EDATE(A45,1)</f>
         <v>38777</v>
       </c>
       <c r="B46" s="20"/>
@@ -4206,9 +4241,9 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38808</v>
       </c>
       <c r="B47" s="20"/>
@@ -4227,9 +4262,9 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38838</v>
       </c>
       <c r="B48" s="20"/>
@@ -4248,9 +4283,9 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38869</v>
       </c>
       <c r="B49" s="20"/>
@@ -4269,9 +4304,9 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38899</v>
       </c>
       <c r="B50" s="20"/>
@@ -4290,9 +4325,9 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38930</v>
       </c>
       <c r="B51" s="20"/>
@@ -4311,9 +4346,9 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>38961</v>
       </c>
       <c r="B52" s="20" t="s">
@@ -4336,7 +4371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4354,7 +4389,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>38991</v>
@@ -4375,9 +4410,9 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>39022</v>
       </c>
       <c r="B55" s="20"/>
@@ -4396,16 +4431,20 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>39052</v>
       </c>
-      <c r="B56" s="20"/>
+      <c r="B56" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>5</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
@@ -4417,7 +4456,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="48" t="s">
         <v>57</v>
       </c>
@@ -4435,7 +4474,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>39083</v>
       </c>
@@ -4455,7 +4494,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>39114</v>
@@ -4476,9 +4515,9 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <f t="shared" ref="A60:A69" si="4">EDATE(A59,1)</f>
+        <f t="shared" ref="A60:A69" si="3">EDATE(A59,1)</f>
         <v>39142</v>
       </c>
       <c r="B60" s="20"/>
@@ -4497,9 +4536,9 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39173</v>
       </c>
       <c r="B61" s="20"/>
@@ -4518,9 +4557,9 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39203</v>
       </c>
       <c r="B62" s="20" t="s">
@@ -4543,7 +4582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4561,7 +4600,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>39234</v>
@@ -4582,9 +4621,9 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39264</v>
       </c>
       <c r="B65" s="20"/>
@@ -4603,9 +4642,9 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39295</v>
       </c>
       <c r="B66" s="20"/>
@@ -4624,9 +4663,9 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39326</v>
       </c>
       <c r="B67" s="20"/>
@@ -4645,9 +4684,9 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39356</v>
       </c>
       <c r="B68" s="20"/>
@@ -4666,9 +4705,9 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39387</v>
       </c>
       <c r="B69" s="20"/>
@@ -4687,7 +4726,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f>EDATE(A69,1)</f>
         <v>39417</v>
@@ -4710,7 +4749,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>46</v>
@@ -4732,7 +4771,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>58</v>
       </c>
@@ -4750,7 +4789,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>39448</v>
       </c>
@@ -4770,7 +4809,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>39479</v>
@@ -4791,9 +4830,9 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <f t="shared" ref="A75:A85" si="5">EDATE(A74,1)</f>
+        <f t="shared" ref="A75:A85" si="4">EDATE(A74,1)</f>
         <v>39508</v>
       </c>
       <c r="B75" s="20"/>
@@ -4812,9 +4851,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39539</v>
       </c>
       <c r="B76" s="20"/>
@@ -4833,9 +4872,9 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39569</v>
       </c>
       <c r="B77" s="20"/>
@@ -4854,9 +4893,9 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39600</v>
       </c>
       <c r="B78" s="20"/>
@@ -4875,9 +4914,9 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39630</v>
       </c>
       <c r="B79" s="20"/>
@@ -4896,9 +4935,9 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39661</v>
       </c>
       <c r="B80" s="20"/>
@@ -4917,9 +4956,9 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39692</v>
       </c>
       <c r="B81" s="20" t="s">
@@ -4942,7 +4981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4960,7 +4999,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39722</v>
@@ -4981,7 +5020,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A83,1)</f>
         <v>39753</v>
@@ -5002,112 +5041,113 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>39783</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39">
-        <v>5</v>
-      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="48" t="s">
+        <v>64</v>
+      </c>
       <c r="B86" s="20"/>
-      <c r="C86" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="48" t="s">
-        <v>64</v>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>39814</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>39814</v>
-      </c>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D88" s="39"/>
+        <f>EDATE(A87,1)</f>
+        <v>39845</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="39">
+        <v>5</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" s="40">
-        <f>EDATE(A88,1)</f>
-        <v>39845</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="39">
-        <v>5</v>
-      </c>
+      <c r="K88" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D89" s="39"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="40"/>
+      <c r="K89" s="20"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="40">
+        <f>EDATE(A88,1)</f>
+        <v>39873</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
         <v>1.25</v>
@@ -5124,10 +5164,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <f>EDATE(A89,1)</f>
-        <v>39873</v>
+        <f t="shared" ref="A91:A104" si="5">EDATE(A90,1)</f>
+        <v>39904</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5145,10 +5185,10 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <f t="shared" ref="A92:A105" si="6">EDATE(A91,1)</f>
-        <v>39904</v>
+        <f t="shared" si="5"/>
+        <v>39934</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13">
@@ -5166,34 +5206,33 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <f t="shared" si="6"/>
-        <v>39934</v>
-      </c>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>39965</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="13"/>
       <c r="D93" s="39"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
-      <c r="G93" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="40">
-        <f t="shared" si="6"/>
-        <v>39965</v>
-      </c>
+      <c r="K93" s="51">
+        <v>45078</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -5206,191 +5245,192 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="51">
-        <v>45078</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="K94" s="52">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
-      <c r="B95" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C95" s="13"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D95" s="39"/>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="52">
-        <v>42887</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K95" s="20"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="40">
+        <f>EDATE(A93,1)</f>
+        <v>39995</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" s="13"/>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H96" s="39"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="39">
+        <v>1</v>
+      </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="40">
-        <f>EDATE(A94,1)</f>
-        <v>39995</v>
-      </c>
+      <c r="K96" s="51">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D97" s="39">
+        <v>0.17700000000000002</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39">
-        <v>1</v>
-      </c>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="51">
-        <v>45084</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="40"/>
+      <c r="K97" s="20"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="40">
+        <f>EDATE(A96,1)</f>
+        <v>40026</v>
+      </c>
       <c r="B98" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C98" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D98" s="39">
-        <v>0.17700000000000002</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H98" s="39"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="39">
+        <v>1</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="40">
-        <f>EDATE(A97,1)</f>
-        <v>40026</v>
-      </c>
+      <c r="K98" s="52">
+        <v>42948</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
+        <v>69</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D99" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39">
-        <v>1</v>
-      </c>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="52">
-        <v>42948</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="40"/>
+      <c r="K99" s="20"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="40">
+        <f>EDATE(A98,1)</f>
+        <v>40057</v>
+      </c>
       <c r="B100" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="13">
-        <v>1.25</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C100" s="13"/>
       <c r="D100" s="39">
-        <v>3.7000000000000019E-2</v>
+        <v>5</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
-      <c r="G100" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="40">
-        <f>EDATE(A99,1)</f>
-        <v>40057</v>
-      </c>
+      <c r="K100" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39">
-        <v>5</v>
-      </c>
+      <c r="D101" s="39"/>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H101" s="39"/>
+      <c r="H101" s="39">
+        <v>1</v>
+      </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="K101" s="52">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
-      <c r="B102" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C102" s="13"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D102" s="39"/>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39">
-        <v>1</v>
-      </c>
-      <c r="I102" s="9"/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H102" s="39"/>
+      <c r="I102" s="11"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="52">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="40"/>
+      <c r="K102" s="20"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="40">
+        <f>EDATE(A100,1)</f>
+        <v>40087</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -5403,14 +5443,14 @@
         <v>1.25</v>
       </c>
       <c r="H103" s="39"/>
-      <c r="I103" s="11"/>
+      <c r="I103" s="9"/>
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <f>EDATE(A101,1)</f>
-        <v>40087</v>
+        <f t="shared" si="5"/>
+        <v>40118</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13">
@@ -5428,79 +5468,78 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <f t="shared" si="6"/>
-        <v>40118</v>
-      </c>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D105" s="39"/>
+        <f>EDATE(A104,1)</f>
+        <v>40148</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="39">
+        <v>8</v>
+      </c>
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
-      <c r="G105" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="40">
-        <f>EDATE(A105,1)</f>
-        <v>40148</v>
-      </c>
+      <c r="K105" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C106" s="13"/>
+        <v>74</v>
+      </c>
+      <c r="C106" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D106" s="39">
-        <v>8</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G106" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H106" s="39"/>
       <c r="I106" s="9"/>
       <c r="J106" s="11"/>
-      <c r="K106" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="40"/>
-      <c r="B107" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C107" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D107" s="39">
-        <v>6.9000000000000006E-2</v>
-      </c>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
-      <c r="G107" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B108" s="20"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="40">
+        <v>40179</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
       <c r="E108" s="9"/>
@@ -5512,14 +5551,14 @@
       <c r="H108" s="39"/>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="40">
-        <v>40179</v>
-      </c>
+      <c r="K108" s="52">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -5532,131 +5571,136 @@
       <c r="H109" s="39"/>
       <c r="I109" s="9"/>
       <c r="J109" s="11"/>
-      <c r="K109" s="52">
-        <v>45658</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="K109" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
+        <v>78</v>
+      </c>
+      <c r="C110" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D110" s="39">
+        <v>0.17900000000000002</v>
+      </c>
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G110" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H110" s="39"/>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111" s="40"/>
+      <c r="K110" s="20"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="40">
+        <f>EDATE(A108,1)</f>
+        <v>40210</v>
+      </c>
       <c r="B111" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C111" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D111" s="39">
-        <v>0.17900000000000002</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H111" s="39"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="39">
+        <v>1</v>
+      </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="40">
-        <f>EDATE(A109,1)</f>
-        <v>40210</v>
-      </c>
+      <c r="K111" s="52">
+        <v>42036</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
+        <v>79</v>
+      </c>
+      <c r="C112" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D112" s="39">
+        <v>1.0349999999999999</v>
+      </c>
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39">
-        <v>1</v>
-      </c>
+      <c r="G112" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="52">
-        <v>42036</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="40"/>
+      <c r="K112" s="20"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="40">
+        <f>EDATE(A111,1)</f>
+        <v>40238</v>
+      </c>
       <c r="B113" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D113" s="39">
-        <v>1.0349999999999999</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="39"/>
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
-      <c r="G113" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H113" s="39"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="39">
+        <v>1</v>
+      </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="40">
-        <f>EDATE(A112,1)</f>
-        <v>40238</v>
-      </c>
-      <c r="B114" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C114" s="13"/>
+      <c r="K113" s="51">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="40"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D114" s="39"/>
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39">
-        <v>1</v>
-      </c>
+      <c r="G114" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H114" s="39"/>
       <c r="I114" s="9"/>
       <c r="J114" s="11"/>
-      <c r="K114" s="51">
-        <v>44988</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="40"/>
-      <c r="B115" s="20"/>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="40">
+        <f>EDATE(A113,1)</f>
+        <v>40269</v>
+      </c>
+      <c r="B115" s="20" t="s">
+        <v>80</v>
+      </c>
       <c r="C115" s="13">
         <v>1.25</v>
       </c>
-      <c r="D115" s="39"/>
+      <c r="D115" s="39">
+        <v>1.8519999999999999</v>
+      </c>
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13">
@@ -5668,19 +5712,19 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <f>EDATE(A114,1)</f>
-        <v>40269</v>
+        <f t="shared" ref="A116:A122" si="6">EDATE(A115,1)</f>
+        <v>40299</v>
       </c>
       <c r="B116" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C116" s="13">
         <v>1.25</v>
       </c>
       <c r="D116" s="39">
-        <v>1.8519999999999999</v>
+        <v>11</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
@@ -5691,22 +5735,20 @@
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="K116" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <f t="shared" ref="A117:A123" si="7">EDATE(A116,1)</f>
-        <v>40299</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>81</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>40330</v>
+      </c>
+      <c r="B117" s="20"/>
       <c r="C117" s="13">
         <v>1.25</v>
       </c>
-      <c r="D117" s="39">
-        <v>11</v>
-      </c>
+      <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
       <c r="G117" s="13">
@@ -5716,14 +5758,12 @@
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="K117" s="20"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <f t="shared" si="7"/>
-        <v>40330</v>
+        <f t="shared" si="6"/>
+        <v>40360</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -5741,16 +5781,20 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <f t="shared" si="7"/>
-        <v>40360</v>
-      </c>
-      <c r="B119" s="20"/>
+        <f t="shared" si="6"/>
+        <v>40391</v>
+      </c>
+      <c r="B119" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C119" s="13">
         <v>1.25</v>
       </c>
-      <c r="D119" s="39"/>
+      <c r="D119" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
       <c r="G119" s="13">
@@ -5762,20 +5806,16 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <f t="shared" si="7"/>
-        <v>40391</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>83</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>40422</v>
+      </c>
+      <c r="B120" s="20"/>
       <c r="C120" s="13">
         <v>1.25</v>
       </c>
-      <c r="D120" s="39">
-        <v>2.5000000000000008E-2</v>
-      </c>
+      <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
       <c r="G120" s="13">
@@ -5787,10 +5827,10 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <f t="shared" si="7"/>
-        <v>40422</v>
+        <f t="shared" si="6"/>
+        <v>40452</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5808,10 +5848,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <f t="shared" si="7"/>
-        <v>40452</v>
+        <f t="shared" si="6"/>
+        <v>40483</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -5829,10 +5869,10 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <f t="shared" si="7"/>
-        <v>40483</v>
+        <f>EDATE(A122,1)</f>
+        <v>40513</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -5850,54 +5890,58 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="40">
-        <f>EDATE(A123,1)</f>
-        <v>40513</v>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="48" t="s">
+        <v>84</v>
       </c>
       <c r="B124" s="20"/>
-      <c r="C124" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C124" s="13"/>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="48" t="s">
-        <v>84</v>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="40">
+        <v>40544</v>
       </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>40544</v>
-      </c>
-      <c r="B126" s="20"/>
+        <f>EDATE(A125,1)</f>
+        <v>40575</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C126" s="13">
         <v>1.25</v>
       </c>
-      <c r="D126" s="39"/>
+      <c r="D126" s="39">
+        <v>3.7000000000000019E-2</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13">
@@ -5909,19 +5953,19 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <f>EDATE(A126,1)</f>
-        <v>40575</v>
+        <f t="shared" ref="A127:A137" si="7">EDATE(A126,1)</f>
+        <v>40603</v>
       </c>
       <c r="B127" s="20" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C127" s="13">
         <v>1.25</v>
       </c>
       <c r="D127" s="39">
-        <v>3.7000000000000019E-2</v>
+        <v>1.9000000000000003E-2</v>
       </c>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
@@ -5934,20 +5978,16 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <f t="shared" ref="A128:A138" si="8">EDATE(A127,1)</f>
-        <v>40603</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>85</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>40634</v>
+      </c>
+      <c r="B128" s="20"/>
       <c r="C128" s="13">
         <v>1.25</v>
       </c>
-      <c r="D128" s="39">
-        <v>1.9000000000000003E-2</v>
-      </c>
+      <c r="D128" s="39"/>
       <c r="E128" s="9"/>
       <c r="F128" s="20"/>
       <c r="G128" s="13">
@@ -5959,10 +5999,10 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <f t="shared" si="8"/>
-        <v>40634</v>
+        <f t="shared" si="7"/>
+        <v>40664</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -5980,10 +6020,10 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <f t="shared" si="8"/>
-        <v>40664</v>
+        <f t="shared" si="7"/>
+        <v>40695</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -6001,10 +6041,10 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <f t="shared" si="8"/>
-        <v>40695</v>
+        <f t="shared" si="7"/>
+        <v>40725</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13">
@@ -6022,10 +6062,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <f t="shared" si="8"/>
-        <v>40725</v>
+        <f>EDATE(A131,1)</f>
+        <v>40756</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -6043,10 +6083,10 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <f>EDATE(A132,1)</f>
-        <v>40756</v>
+        <f t="shared" si="7"/>
+        <v>40787</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -6064,52 +6104,52 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <f t="shared" si="8"/>
-        <v>40787</v>
-      </c>
-      <c r="B134" s="20"/>
-      <c r="C134" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="7"/>
+        <v>40817</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C134" s="13"/>
       <c r="D134" s="39"/>
       <c r="E134" s="9"/>
       <c r="F134" s="20"/>
-      <c r="G134" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H134" s="39"/>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
-      <c r="K134" s="20"/>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="40">
-        <f t="shared" si="8"/>
-        <v>40817</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C135" s="13"/>
+      <c r="K134" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D135" s="39"/>
       <c r="E135" s="9"/>
       <c r="F135" s="20"/>
-      <c r="G135" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G135" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H135" s="39"/>
       <c r="I135" s="9"/>
       <c r="J135" s="11"/>
-      <c r="K135" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="40"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40">
+        <f>EDATE(A134,1)</f>
+        <v>40848</v>
+      </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
         <v>1.25</v>
@@ -6126,12 +6166,14 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <f>EDATE(A135,1)</f>
-        <v>40848</v>
-      </c>
-      <c r="B137" s="20"/>
+        <f t="shared" si="7"/>
+        <v>40878</v>
+      </c>
+      <c r="B137" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C137" s="13">
         <v>1.25</v>
       </c>
@@ -6145,13 +6187,12 @@
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
-      <c r="K137" s="20"/>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="40">
-        <f t="shared" si="8"/>
-        <v>40878</v>
-      </c>
+      <c r="K137" s="52">
+        <v>46357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>66</v>
       </c>
@@ -6166,17 +6207,19 @@
       <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
-      <c r="K138" s="52">
-        <v>46357</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="K138" s="51">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="C139" s="13"/>
-      <c r="D139" s="39"/>
+      <c r="D139" s="39">
+        <v>5</v>
+      </c>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
       <c r="G139" s="13" t="str">
@@ -6186,35 +6229,37 @@
       <c r="H139" s="39"/>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
-      <c r="K139" s="51">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="40"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="48" t="s">
+        <v>87</v>
+      </c>
       <c r="B140" s="20"/>
-      <c r="C140" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C140" s="13"/>
       <c r="D140" s="39"/>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B141" s="20"/>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40">
+        <v>40909</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C141" s="13"/>
-      <c r="D141" s="39"/>
+      <c r="D141" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
       <c r="G141" s="13" t="str">
@@ -6226,30 +6271,29 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="40">
-        <v>40909</v>
-      </c>
-      <c r="B142" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="39">
-        <v>4.0000000000000001E-3</v>
-      </c>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D142" s="39"/>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
-      <c r="A143" s="40"/>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40">
+        <f>EDATE(A141,1)</f>
+        <v>40940</v>
+      </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13">
         <v>1.25</v>
@@ -6266,54 +6310,54 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <f>EDATE(A142,1)</f>
-        <v>40940</v>
-      </c>
-      <c r="B144" s="20"/>
-      <c r="C144" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D144" s="39"/>
+        <f t="shared" ref="A144:A155" si="8">EDATE(A143,1)</f>
+        <v>40969</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39">
+        <v>14</v>
+      </c>
       <c r="E144" s="9"/>
       <c r="F144" s="20"/>
-      <c r="G144" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="20"/>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145" s="40">
-        <f t="shared" ref="A145:A156" si="9">EDATE(A144,1)</f>
-        <v>40969</v>
-      </c>
-      <c r="B145" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="39">
-        <v>14</v>
-      </c>
+      <c r="K144" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D145" s="39"/>
       <c r="E145" s="9"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G145" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
-      <c r="K145" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146" s="40"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40">
+        <f>EDATE(A144,1)</f>
+        <v>41000</v>
+      </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13">
         <v>1.25</v>
@@ -6330,10 +6374,10 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
-        <f>EDATE(A145,1)</f>
-        <v>41000</v>
+        <f t="shared" si="8"/>
+        <v>41030</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -6351,10 +6395,10 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <f t="shared" si="9"/>
-        <v>41030</v>
+        <f t="shared" si="8"/>
+        <v>41061</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13">
@@ -6372,100 +6416,100 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
-        <f t="shared" si="9"/>
-        <v>41061</v>
-      </c>
-      <c r="B149" s="20"/>
+        <f t="shared" si="8"/>
+        <v>41091</v>
+      </c>
+      <c r="B149" s="15"/>
       <c r="C149" s="13">
         <v>1.25</v>
       </c>
-      <c r="D149" s="39"/>
+      <c r="D149" s="43"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H149" s="39"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H149" s="43"/>
       <c r="I149" s="9"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="20"/>
-    </row>
-    <row r="150" spans="1:11">
+      <c r="J149" s="12"/>
+      <c r="K149" s="15"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <f t="shared" si="9"/>
-        <v>41091</v>
-      </c>
-      <c r="B150" s="15"/>
+        <f t="shared" si="8"/>
+        <v>41122</v>
+      </c>
+      <c r="B150" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C150" s="13">
         <v>1.25</v>
       </c>
-      <c r="D150" s="43"/>
+      <c r="D150" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E150" s="9"/>
-      <c r="F150" s="15"/>
+      <c r="F150" s="20"/>
       <c r="G150" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H150" s="43"/>
+      <c r="H150" s="39"/>
       <c r="I150" s="9"/>
-      <c r="J150" s="12"/>
-      <c r="K150" s="15"/>
-    </row>
-    <row r="151" spans="1:11">
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <f t="shared" si="9"/>
-        <v>41122</v>
+        <f t="shared" si="8"/>
+        <v>41153</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C151" s="13">
-        <v>1.25</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C151" s="13"/>
       <c r="D151" s="39">
-        <v>4.2000000000000003E-2</v>
+        <v>3</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="20"/>
-      <c r="G151" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H151" s="39"/>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
-      <c r="K151" s="20"/>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152" s="40">
-        <f t="shared" si="9"/>
-        <v>41153</v>
-      </c>
-      <c r="B152" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="39">
-        <v>3</v>
-      </c>
+      <c r="K151" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D152" s="39"/>
       <c r="E152" s="9"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G152" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H152" s="39"/>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153" s="40"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40">
+        <f>EDATE(A151,1)</f>
+        <v>41183</v>
+      </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -6473,7 +6517,7 @@
       <c r="D153" s="39"/>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
-      <c r="G153" s="13">
+      <c r="G153" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -6482,10 +6526,10 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <f>EDATE(A152,1)</f>
-        <v>41183</v>
+        <f t="shared" si="8"/>
+        <v>41214</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -6503,12 +6547,14 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <f t="shared" si="9"/>
-        <v>41214</v>
-      </c>
-      <c r="B155" s="20"/>
+        <f t="shared" si="8"/>
+        <v>41244</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>94</v>
+      </c>
       <c r="C155" s="13">
         <v>1.25</v>
       </c>
@@ -6522,40 +6568,39 @@
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="20"/>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156" s="40">
-        <f t="shared" si="9"/>
-        <v>41244</v>
-      </c>
-      <c r="B156" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C156" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K155" s="20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B156" s="20"/>
+      <c r="C156" s="13"/>
       <c r="D156" s="39"/>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G156" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B157" s="20"/>
+      <c r="K156" s="20"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40">
+        <v>41275</v>
+      </c>
+      <c r="B157" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C157" s="13"/>
-      <c r="D157" s="39"/>
+      <c r="D157" s="39">
+        <v>0.15600000000000003</v>
+      </c>
       <c r="E157" s="9"/>
       <c r="F157" s="20"/>
       <c r="G157" s="42" t="str">
@@ -6567,30 +6612,29 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
-      <c r="A158" s="40">
-        <v>41275</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="39">
-        <v>0.15600000000000003</v>
-      </c>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D158" s="39"/>
       <c r="E158" s="9"/>
       <c r="F158" s="20"/>
-      <c r="G158" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H158" s="39"/>
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11">
-      <c r="A159" s="40"/>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40">
+        <f>EDATE(A157,1)</f>
+        <v>41306</v>
+      </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13">
         <v>1.25</v>
@@ -6598,7 +6642,7 @@
       <c r="D159" s="39"/>
       <c r="E159" s="9"/>
       <c r="F159" s="20"/>
-      <c r="G159" s="13">
+      <c r="G159" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -6607,10 +6651,10 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
-        <f>EDATE(A158,1)</f>
-        <v>41306</v>
+        <f t="shared" ref="A160:A168" si="9">EDATE(A159,1)</f>
+        <v>41334</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -6628,10 +6672,10 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <f t="shared" ref="A161:A169" si="10">EDATE(A160,1)</f>
-        <v>41334</v>
+        <f t="shared" si="9"/>
+        <v>41365</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13">
@@ -6649,10 +6693,10 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <f t="shared" si="10"/>
-        <v>41365</v>
+        <f t="shared" si="9"/>
+        <v>41395</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13">
@@ -6670,10 +6714,10 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <f t="shared" si="10"/>
-        <v>41395</v>
+        <f t="shared" si="9"/>
+        <v>41426</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13">
@@ -6691,54 +6735,54 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
-        <f t="shared" si="10"/>
-        <v>41426</v>
-      </c>
-      <c r="B164" s="20"/>
-      <c r="C164" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>41456</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C164" s="13"/>
       <c r="D164" s="39"/>
       <c r="E164" s="9"/>
       <c r="F164" s="20"/>
-      <c r="G164" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H164" s="39"/>
+      <c r="G164" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39">
+        <v>2</v>
+      </c>
       <c r="I164" s="9"/>
       <c r="J164" s="11"/>
-      <c r="K164" s="20"/>
-    </row>
-    <row r="165" spans="1:11">
-      <c r="A165" s="40">
-        <f t="shared" si="10"/>
-        <v>41456</v>
-      </c>
-      <c r="B165" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C165" s="13"/>
+      <c r="K164" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="40"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D165" s="39"/>
       <c r="E165" s="9"/>
       <c r="F165" s="20"/>
-      <c r="G165" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H165" s="39">
-        <v>2</v>
-      </c>
+      <c r="G165" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H165" s="39"/>
       <c r="I165" s="9"/>
       <c r="J165" s="11"/>
-      <c r="K165" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11">
-      <c r="A166" s="40"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="40">
+        <f>EDATE(A164,1)</f>
+        <v>41487</v>
+      </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -6746,7 +6790,7 @@
       <c r="D166" s="39"/>
       <c r="E166" s="9"/>
       <c r="F166" s="20"/>
-      <c r="G166" s="13">
+      <c r="G166" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -6755,10 +6799,10 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
-        <f>EDATE(A165,1)</f>
-        <v>41487</v>
+        <f t="shared" si="9"/>
+        <v>41518</v>
       </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13">
@@ -6776,72 +6820,72 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <f t="shared" si="10"/>
-        <v>41518</v>
-      </c>
-      <c r="B168" s="20"/>
-      <c r="C168" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D168" s="39"/>
-      <c r="E168" s="9"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H168" s="39"/>
-      <c r="I168" s="9"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="20"/>
-    </row>
-    <row r="169" spans="1:11">
-      <c r="A169" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>41548</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B168" s="15" t="s">
         <v>99</v>
       </c>
+      <c r="C168" s="13"/>
+      <c r="D168" s="43"/>
+      <c r="E168" s="53"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="43">
+        <v>2</v>
+      </c>
+      <c r="I168" s="53"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="40"/>
+      <c r="B169" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C169" s="13"/>
-      <c r="D169" s="43"/>
-      <c r="E169" s="53"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H169" s="43">
-        <v>2</v>
-      </c>
-      <c r="I169" s="53"/>
-      <c r="J169" s="12"/>
-      <c r="K169" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11">
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
-      <c r="B170" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C170" s="13"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D170" s="39"/>
       <c r="E170" s="9"/>
       <c r="F170" s="20"/>
-      <c r="G170" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G170" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H170" s="39"/>
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11">
-      <c r="A171" s="40"/>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="40">
+        <f>EDATE(A168,1)</f>
+        <v>41579</v>
+      </c>
       <c r="B171" s="20"/>
       <c r="C171" s="13">
         <v>1.25</v>
@@ -6849,7 +6893,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="9"/>
       <c r="F171" s="20"/>
-      <c r="G171" s="13">
+      <c r="G171" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -6858,16 +6902,20 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <f>EDATE(A169,1)</f>
-        <v>41579</v>
-      </c>
-      <c r="B172" s="20"/>
+        <f>EDATE(A171,1)</f>
+        <v>41609</v>
+      </c>
+      <c r="B172" s="20" t="s">
+        <v>138</v>
+      </c>
       <c r="C172" s="13">
         <v>1.25</v>
       </c>
-      <c r="D172" s="39"/>
+      <c r="D172" s="39">
+        <v>5</v>
+      </c>
       <c r="E172" s="9"/>
       <c r="F172" s="20"/>
       <c r="G172" s="42">
@@ -6879,79 +6927,83 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
-      <c r="A173" s="40">
-        <f>EDATE(A172,1)</f>
-        <v>41609</v>
-      </c>
-      <c r="B173" s="20"/>
-      <c r="C173" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D173" s="39"/>
-      <c r="E173" s="9"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H173" s="39"/>
-      <c r="I173" s="9"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="20"/>
-    </row>
-    <row r="174" spans="1:11">
-      <c r="A174" s="54" t="s">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="B174" s="15"/>
-      <c r="C174" s="42"/>
-      <c r="D174" s="43"/>
-      <c r="E174" s="53"/>
-      <c r="F174" s="15"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="43"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H173" s="43"/>
+      <c r="I173" s="53"/>
+      <c r="J173" s="12"/>
+      <c r="K173" s="15"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="40">
+        <v>41640</v>
+      </c>
+      <c r="B174" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C174" s="13"/>
+      <c r="D174" s="39"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
       <c r="G174" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H174" s="43"/>
-      <c r="I174" s="53"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="15"/>
-    </row>
-    <row r="175" spans="1:11">
-      <c r="A175" s="40">
-        <v>41640</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C175" s="13"/>
+      <c r="H174" s="39">
+        <v>1</v>
+      </c>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="51">
+        <v>44934</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="40"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D175" s="39"/>
       <c r="E175" s="9"/>
       <c r="F175" s="20"/>
-      <c r="G175" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H175" s="39">
-        <v>1</v>
-      </c>
+      <c r="G175" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H175" s="39"/>
       <c r="I175" s="9"/>
       <c r="J175" s="11"/>
-      <c r="K175" s="51">
-        <v>44934</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11">
-      <c r="A176" s="40"/>
-      <c r="B176" s="20"/>
+      <c r="K175" s="20"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="40">
+        <f>EDATE(A174,1)</f>
+        <v>41671</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C176" s="13">
         <v>1.25</v>
       </c>
-      <c r="D176" s="39"/>
+      <c r="D176" s="39">
+        <v>1.9000000000000003E-2</v>
+      </c>
       <c r="E176" s="9"/>
       <c r="F176" s="20"/>
-      <c r="G176" s="13">
+      <c r="G176" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -6960,39 +7012,39 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <f>EDATE(A175,1)</f>
-        <v>41671</v>
+        <f t="shared" ref="A177:A187" si="10">EDATE(A176,1)</f>
+        <v>41699</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
       </c>
-      <c r="D177" s="39">
-        <v>1.9000000000000003E-2</v>
-      </c>
+      <c r="D177" s="39"/>
       <c r="E177" s="9"/>
       <c r="F177" s="20"/>
       <c r="G177" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H177" s="39"/>
+      <c r="H177" s="39">
+        <v>1</v>
+      </c>
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
-      <c r="K177" s="20"/>
-    </row>
-    <row r="178" spans="1:11">
+      <c r="K177" s="52">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
-        <f t="shared" ref="A178:A188" si="11">EDATE(A177,1)</f>
-        <v>41699</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>67</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>41730</v>
+      </c>
+      <c r="B178" s="20"/>
       <c r="C178" s="13">
         <v>1.25</v>
       </c>
@@ -7003,19 +7055,15 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H178" s="39">
-        <v>1</v>
-      </c>
+      <c r="H178" s="39"/>
       <c r="I178" s="9"/>
       <c r="J178" s="11"/>
-      <c r="K178" s="52">
-        <v>44986</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11">
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <f t="shared" si="11"/>
-        <v>41730</v>
+        <f t="shared" si="10"/>
+        <v>41760</v>
       </c>
       <c r="B179" s="20"/>
       <c r="C179" s="13">
@@ -7033,10 +7081,10 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <f t="shared" si="11"/>
-        <v>41760</v>
+        <f t="shared" si="10"/>
+        <v>41791</v>
       </c>
       <c r="B180" s="20"/>
       <c r="C180" s="13">
@@ -7054,10 +7102,10 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
-        <f t="shared" si="11"/>
-        <v>41791</v>
+        <f t="shared" si="10"/>
+        <v>41821</v>
       </c>
       <c r="B181" s="20"/>
       <c r="C181" s="13">
@@ -7075,10 +7123,10 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
-        <f t="shared" si="11"/>
-        <v>41821</v>
+        <f t="shared" si="10"/>
+        <v>41852</v>
       </c>
       <c r="B182" s="20"/>
       <c r="C182" s="13">
@@ -7096,52 +7144,52 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
-        <f t="shared" si="11"/>
-        <v>41852</v>
-      </c>
-      <c r="B183" s="20"/>
-      <c r="C183" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>41883</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C183" s="13"/>
       <c r="D183" s="39"/>
       <c r="E183" s="9"/>
       <c r="F183" s="20"/>
-      <c r="G183" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G183" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H183" s="39"/>
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
-      <c r="K183" s="20"/>
-    </row>
-    <row r="184" spans="1:11">
-      <c r="A184" s="40">
-        <f t="shared" si="11"/>
-        <v>41883</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C184" s="13"/>
+      <c r="K183" s="52">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="40"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D184" s="39"/>
       <c r="E184" s="9"/>
       <c r="F184" s="20"/>
-      <c r="G184" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G184" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H184" s="39"/>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="52">
-        <v>45566</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185" s="40"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="40">
+        <f>EDATE(A183,1)</f>
+        <v>41913</v>
+      </c>
       <c r="B185" s="20"/>
       <c r="C185" s="13">
         <v>1.25</v>
@@ -7149,7 +7197,7 @@
       <c r="D185" s="39"/>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
-      <c r="G185" s="13">
+      <c r="G185" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -7158,100 +7206,104 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <f>EDATE(A184,1)</f>
-        <v>41913</v>
-      </c>
-      <c r="B186" s="20"/>
+        <f>EDATE(A185,1)</f>
+        <v>41944</v>
+      </c>
+      <c r="B186" s="15"/>
       <c r="C186" s="13">
         <v>1.25</v>
       </c>
-      <c r="D186" s="39"/>
-      <c r="E186" s="9"/>
-      <c r="F186" s="20"/>
+      <c r="D186" s="43"/>
+      <c r="E186" s="53"/>
+      <c r="F186" s="15"/>
       <c r="G186" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H186" s="39"/>
-      <c r="I186" s="9"/>
-      <c r="J186" s="11"/>
-      <c r="K186" s="20"/>
-    </row>
-    <row r="187" spans="1:11">
+      <c r="H186" s="43"/>
+      <c r="I186" s="53"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="15"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <f>EDATE(A186,1)</f>
-        <v>41944</v>
-      </c>
-      <c r="B187" s="15"/>
+        <f t="shared" si="10"/>
+        <v>41974</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C187" s="13">
         <v>1.25</v>
       </c>
-      <c r="D187" s="43"/>
-      <c r="E187" s="53"/>
-      <c r="F187" s="15"/>
+      <c r="D187" s="39">
+        <v>5</v>
+      </c>
+      <c r="E187" s="9"/>
+      <c r="F187" s="20"/>
       <c r="G187" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H187" s="43"/>
-      <c r="I187" s="53"/>
-      <c r="J187" s="12"/>
-      <c r="K187" s="15"/>
-    </row>
-    <row r="188" spans="1:11">
-      <c r="A188" s="40">
-        <f t="shared" si="11"/>
-        <v>41974</v>
-      </c>
-      <c r="B188" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C188" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D188" s="39">
-        <v>5</v>
-      </c>
+      <c r="H187" s="39"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B188" s="20"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="39"/>
       <c r="E188" s="9"/>
       <c r="F188" s="20"/>
-      <c r="G188" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G188" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H188" s="39"/>
       <c r="I188" s="9"/>
       <c r="J188" s="11"/>
-      <c r="K188" s="20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11">
-      <c r="A189" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B189" s="20"/>
-      <c r="C189" s="13"/>
+      <c r="K188" s="20"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="40">
+        <v>42005</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D189" s="39"/>
       <c r="E189" s="9"/>
       <c r="F189" s="20"/>
-      <c r="G189" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H189" s="39"/>
+      <c r="G189" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H189" s="39">
+        <v>3</v>
+      </c>
       <c r="I189" s="9"/>
       <c r="J189" s="11"/>
-      <c r="K189" s="20"/>
-    </row>
-    <row r="190" spans="1:11">
+      <c r="K189" s="49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
-        <v>42005</v>
-      </c>
-      <c r="B190" s="20" t="s">
-        <v>107</v>
-      </c>
+        <f>EDATE(A189,1)</f>
+        <v>42036</v>
+      </c>
+      <c r="B190" s="20"/>
       <c r="C190" s="13">
         <v>1.25</v>
       </c>
@@ -7262,19 +7314,15 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H190" s="39">
-        <v>3</v>
-      </c>
+      <c r="H190" s="39"/>
       <c r="I190" s="9"/>
       <c r="J190" s="11"/>
-      <c r="K190" s="49" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11">
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <f>EDATE(A190,1)</f>
-        <v>42036</v>
+        <f t="shared" ref="A191:A200" si="11">EDATE(A190,1)</f>
+        <v>42064</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13">
@@ -7292,10 +7340,10 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
-        <f t="shared" ref="A192:A201" si="12">EDATE(A191,1)</f>
-        <v>42064</v>
+        <f t="shared" si="11"/>
+        <v>42095</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13">
@@ -7313,10 +7361,10 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <f t="shared" si="12"/>
-        <v>42095</v>
+        <f t="shared" si="11"/>
+        <v>42125</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -7334,10 +7382,10 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <f t="shared" si="12"/>
-        <v>42125</v>
+        <f t="shared" si="11"/>
+        <v>42156</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13">
@@ -7355,10 +7403,10 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
-        <f t="shared" si="12"/>
-        <v>42156</v>
+        <f t="shared" si="11"/>
+        <v>42186</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13">
@@ -7376,54 +7424,54 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <f t="shared" si="12"/>
-        <v>42186</v>
-      </c>
-      <c r="B196" s="20"/>
-      <c r="C196" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D196" s="39"/>
-      <c r="E196" s="9"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H196" s="39"/>
-      <c r="I196" s="9"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="20"/>
-    </row>
-    <row r="197" spans="1:11">
-      <c r="A197" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>42217</v>
       </c>
-      <c r="B197" s="15" t="s">
+      <c r="B196" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="43"/>
-      <c r="E197" s="53"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H197" s="43">
+      <c r="C196" s="13"/>
+      <c r="D196" s="43"/>
+      <c r="E196" s="53"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="43">
         <v>1</v>
       </c>
-      <c r="I197" s="53"/>
-      <c r="J197" s="12"/>
-      <c r="K197" s="67">
+      <c r="I196" s="53"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="55">
         <v>45149</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
-      <c r="A198" s="40"/>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="40"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D197" s="39"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H197" s="39"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="40">
+        <f>EDATE(A196,1)</f>
+        <v>42248</v>
+      </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13">
         <v>1.25</v>
@@ -7431,7 +7479,7 @@
       <c r="D198" s="39"/>
       <c r="E198" s="9"/>
       <c r="F198" s="20"/>
-      <c r="G198" s="13">
+      <c r="G198" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -7440,16 +7488,20 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
-        <f>EDATE(A197,1)</f>
-        <v>42248</v>
-      </c>
-      <c r="B199" s="20"/>
+        <f t="shared" si="11"/>
+        <v>42278</v>
+      </c>
+      <c r="B199" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C199" s="13">
         <v>1.25</v>
       </c>
-      <c r="D199" s="39"/>
+      <c r="D199" s="39">
+        <v>5</v>
+      </c>
       <c r="E199" s="9"/>
       <c r="F199" s="20"/>
       <c r="G199" s="42">
@@ -7459,22 +7511,20 @@
       <c r="H199" s="39"/>
       <c r="I199" s="9"/>
       <c r="J199" s="11"/>
-      <c r="K199" s="20"/>
-    </row>
-    <row r="200" spans="1:11">
+      <c r="K199" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <f t="shared" si="12"/>
-        <v>42278</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>46</v>
-      </c>
+        <f t="shared" si="11"/>
+        <v>42309</v>
+      </c>
+      <c r="B200" s="20"/>
       <c r="C200" s="13">
         <v>1.25</v>
       </c>
-      <c r="D200" s="39">
-        <v>5</v>
-      </c>
+      <c r="D200" s="39"/>
       <c r="E200" s="9"/>
       <c r="F200" s="20"/>
       <c r="G200" s="42">
@@ -7484,14 +7534,12 @@
       <c r="H200" s="39"/>
       <c r="I200" s="9"/>
       <c r="J200" s="11"/>
-      <c r="K200" s="20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11">
+      <c r="K200" s="20"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
-        <f t="shared" si="12"/>
-        <v>42309</v>
+        <f>EDATE(A200,1)</f>
+        <v>42339</v>
       </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13">
@@ -7509,52 +7557,56 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
-      <c r="A202" s="40">
-        <f>EDATE(A201,1)</f>
-        <v>42339</v>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="B202" s="20"/>
-      <c r="C202" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C202" s="13"/>
       <c r="D202" s="39"/>
       <c r="E202" s="9"/>
       <c r="F202" s="20"/>
-      <c r="G202" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G202" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H202" s="39"/>
       <c r="I202" s="9"/>
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11">
-      <c r="A203" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B203" s="20"/>
-      <c r="C203" s="13"/>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="40">
+        <v>42370</v>
+      </c>
+      <c r="B203" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C203" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D203" s="39"/>
       <c r="E203" s="9"/>
       <c r="F203" s="20"/>
-      <c r="G203" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H203" s="39"/>
+      <c r="G203" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H203" s="39">
+        <v>5</v>
+      </c>
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
-      <c r="K203" s="20"/>
-    </row>
-    <row r="204" spans="1:11">
+      <c r="K203" s="49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <v>42370</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>106</v>
-      </c>
+        <f>EDATE(A203,1)</f>
+        <v>42401</v>
+      </c>
+      <c r="B204" s="20"/>
       <c r="C204" s="13">
         <v>1.25</v>
       </c>
@@ -7565,19 +7617,15 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H204" s="39">
-        <v>5</v>
-      </c>
+      <c r="H204" s="39"/>
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
-      <c r="K204" s="49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11">
+      <c r="K204" s="20"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <f>EDATE(A204,1)</f>
-        <v>42401</v>
+        <f t="shared" ref="A205:A214" si="12">EDATE(A204,1)</f>
+        <v>42430</v>
       </c>
       <c r="B205" s="20"/>
       <c r="C205" s="13">
@@ -7595,10 +7643,10 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <f t="shared" ref="A206:A215" si="13">EDATE(A205,1)</f>
-        <v>42430</v>
+        <f t="shared" si="12"/>
+        <v>42461</v>
       </c>
       <c r="B206" s="20"/>
       <c r="C206" s="13">
@@ -7616,10 +7664,10 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <f t="shared" si="13"/>
-        <v>42461</v>
+        <f t="shared" si="12"/>
+        <v>42491</v>
       </c>
       <c r="B207" s="20"/>
       <c r="C207" s="13">
@@ -7637,16 +7685,20 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
-        <f t="shared" si="13"/>
-        <v>42491</v>
-      </c>
-      <c r="B208" s="20"/>
+        <f t="shared" si="12"/>
+        <v>42522</v>
+      </c>
+      <c r="B208" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C208" s="13">
         <v>1.25</v>
       </c>
-      <c r="D208" s="39"/>
+      <c r="D208" s="39">
+        <v>11</v>
+      </c>
       <c r="E208" s="9"/>
       <c r="F208" s="20"/>
       <c r="G208" s="42">
@@ -7656,22 +7708,20 @@
       <c r="H208" s="39"/>
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
-      <c r="K208" s="20"/>
-    </row>
-    <row r="209" spans="1:11">
+      <c r="K208" s="49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
-        <f t="shared" si="13"/>
-        <v>42522</v>
-      </c>
-      <c r="B209" s="20" t="s">
-        <v>81</v>
-      </c>
+        <f t="shared" si="12"/>
+        <v>42552</v>
+      </c>
+      <c r="B209" s="20"/>
       <c r="C209" s="13">
         <v>1.25</v>
       </c>
-      <c r="D209" s="39">
-        <v>11</v>
-      </c>
+      <c r="D209" s="39"/>
       <c r="E209" s="9"/>
       <c r="F209" s="20"/>
       <c r="G209" s="42">
@@ -7681,14 +7731,12 @@
       <c r="H209" s="39"/>
       <c r="I209" s="9"/>
       <c r="J209" s="11"/>
-      <c r="K209" s="49" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11">
+      <c r="K209" s="20"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
-        <f t="shared" si="13"/>
-        <v>42552</v>
+        <f t="shared" si="12"/>
+        <v>42583</v>
       </c>
       <c r="B210" s="20"/>
       <c r="C210" s="13">
@@ -7706,10 +7754,10 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <f t="shared" si="13"/>
-        <v>42583</v>
+        <f t="shared" si="12"/>
+        <v>42614</v>
       </c>
       <c r="B211" s="20"/>
       <c r="C211" s="13">
@@ -7727,10 +7775,10 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <f t="shared" si="13"/>
-        <v>42614</v>
+        <f t="shared" si="12"/>
+        <v>42644</v>
       </c>
       <c r="B212" s="20"/>
       <c r="C212" s="13">
@@ -7748,10 +7796,10 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <f t="shared" si="13"/>
-        <v>42644</v>
+        <f t="shared" si="12"/>
+        <v>42675</v>
       </c>
       <c r="B213" s="20"/>
       <c r="C213" s="13">
@@ -7769,16 +7817,20 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <f t="shared" si="13"/>
-        <v>42675</v>
-      </c>
-      <c r="B214" s="20"/>
+        <f t="shared" si="12"/>
+        <v>42705</v>
+      </c>
+      <c r="B214" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C214" s="13">
         <v>1.25</v>
       </c>
-      <c r="D214" s="39"/>
+      <c r="D214" s="39">
+        <v>5</v>
+      </c>
       <c r="E214" s="9"/>
       <c r="F214" s="20"/>
       <c r="G214" s="42">
@@ -7788,60 +7840,58 @@
       <c r="H214" s="39"/>
       <c r="I214" s="9"/>
       <c r="J214" s="11"/>
-      <c r="K214" s="20"/>
-    </row>
-    <row r="215" spans="1:11">
-      <c r="A215" s="40">
-        <f t="shared" si="13"/>
-        <v>42705</v>
-      </c>
-      <c r="B215" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C215" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D215" s="39">
-        <v>5</v>
-      </c>
+      <c r="K214" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A215" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B215" s="20"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="39"/>
       <c r="E215" s="9"/>
       <c r="F215" s="20"/>
-      <c r="G215" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G215" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H215" s="39"/>
       <c r="I215" s="9"/>
       <c r="J215" s="11"/>
-      <c r="K215" s="20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11">
-      <c r="A216" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B216" s="20"/>
-      <c r="C216" s="13"/>
+      <c r="K215" s="20"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="40">
+        <v>42736</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D216" s="39"/>
       <c r="E216" s="9"/>
       <c r="F216" s="20"/>
-      <c r="G216" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H216" s="39"/>
+      <c r="G216" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H216" s="39">
+        <v>1</v>
+      </c>
       <c r="I216" s="9"/>
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
-        <v>42736</v>
-      </c>
-      <c r="B217" s="20" t="s">
-        <v>67</v>
-      </c>
+        <f>EDATE(A216,1)</f>
+        <v>42767</v>
+      </c>
+      <c r="B217" s="20"/>
       <c r="C217" s="13">
         <v>1.25</v>
       </c>
@@ -7852,17 +7902,15 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H217" s="39">
-        <v>1</v>
-      </c>
+      <c r="H217" s="39"/>
       <c r="I217" s="9"/>
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <f>EDATE(A217,1)</f>
-        <v>42767</v>
+        <f t="shared" ref="A218:A229" si="13">EDATE(A217,1)</f>
+        <v>42795</v>
       </c>
       <c r="B218" s="20"/>
       <c r="C218" s="13">
@@ -7880,10 +7928,10 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
-        <f t="shared" ref="A219:A230" si="14">EDATE(A218,1)</f>
-        <v>42795</v>
+        <f t="shared" si="13"/>
+        <v>42826</v>
       </c>
       <c r="B219" s="20"/>
       <c r="C219" s="13">
@@ -7901,10 +7949,10 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
-        <f t="shared" si="14"/>
-        <v>42826</v>
+        <f t="shared" si="13"/>
+        <v>42856</v>
       </c>
       <c r="B220" s="20"/>
       <c r="C220" s="13">
@@ -7922,10 +7970,10 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <f t="shared" si="14"/>
-        <v>42856</v>
+        <f t="shared" si="13"/>
+        <v>42887</v>
       </c>
       <c r="B221" s="20"/>
       <c r="C221" s="13">
@@ -7943,10 +7991,10 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <f t="shared" si="14"/>
-        <v>42887</v>
+        <f t="shared" si="13"/>
+        <v>42917</v>
       </c>
       <c r="B222" s="20"/>
       <c r="C222" s="13">
@@ -7964,10 +8012,10 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
-        <f t="shared" si="14"/>
-        <v>42917</v>
+        <f t="shared" si="13"/>
+        <v>42948</v>
       </c>
       <c r="B223" s="20"/>
       <c r="C223" s="13">
@@ -7985,97 +8033,97 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <f t="shared" si="14"/>
-        <v>42948</v>
-      </c>
-      <c r="B224" s="20"/>
-      <c r="C224" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>42979</v>
+      </c>
+      <c r="B224" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C224" s="13"/>
       <c r="D224" s="39"/>
       <c r="E224" s="9"/>
       <c r="F224" s="20"/>
-      <c r="G224" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H224" s="39"/>
+      <c r="G224" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H224" s="39">
+        <v>1</v>
+      </c>
       <c r="I224" s="9"/>
       <c r="J224" s="11"/>
-      <c r="K224" s="20"/>
-    </row>
-    <row r="225" spans="1:11">
-      <c r="A225" s="40">
-        <f t="shared" si="14"/>
-        <v>42979</v>
-      </c>
-      <c r="B225" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C225" s="13"/>
+      <c r="K224" s="52">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="40"/>
+      <c r="B225" s="20"/>
+      <c r="C225" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D225" s="39"/>
       <c r="E225" s="9"/>
       <c r="F225" s="20"/>
-      <c r="G225" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H225" s="39">
-        <v>1</v>
-      </c>
+      <c r="G225" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H225" s="39"/>
       <c r="I225" s="9"/>
       <c r="J225" s="11"/>
-      <c r="K225" s="52">
-        <v>44075</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11">
-      <c r="A226" s="40"/>
-      <c r="B226" s="20"/>
-      <c r="C226" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K225" s="20"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="40">
+        <f>EDATE(A224,1)</f>
+        <v>43009</v>
+      </c>
+      <c r="B226" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C226" s="13"/>
       <c r="D226" s="39"/>
       <c r="E226" s="9"/>
       <c r="F226" s="20"/>
-      <c r="G226" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H226" s="39"/>
+      <c r="G226" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H226" s="39">
+        <v>1</v>
+      </c>
       <c r="I226" s="9"/>
       <c r="J226" s="11"/>
-      <c r="K226" s="20"/>
-    </row>
-    <row r="227" spans="1:11">
-      <c r="A227" s="40">
-        <f>EDATE(A225,1)</f>
-        <v>43009</v>
-      </c>
-      <c r="B227" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C227" s="13"/>
+      <c r="K226" s="52">
+        <v>11232</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="40"/>
+      <c r="B227" s="20"/>
+      <c r="C227" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D227" s="39"/>
       <c r="E227" s="9"/>
       <c r="F227" s="20"/>
-      <c r="G227" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H227" s="39">
-        <v>1</v>
-      </c>
+      <c r="G227" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H227" s="39"/>
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
-      <c r="K227" s="52">
-        <v>11232</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11">
-      <c r="A228" s="40"/>
+      <c r="K227" s="20"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="40">
+        <f>EDATE(A226,1)</f>
+        <v>43040</v>
+      </c>
       <c r="B228" s="20"/>
       <c r="C228" s="13">
         <v>1.25</v>
@@ -8083,7 +8131,7 @@
       <c r="D228" s="39"/>
       <c r="E228" s="9"/>
       <c r="F228" s="20"/>
-      <c r="G228" s="13">
+      <c r="G228" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -8092,38 +8140,39 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <f>EDATE(A227,1)</f>
-        <v>43040</v>
-      </c>
-      <c r="B229" s="20"/>
-      <c r="C229" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D229" s="39"/>
+        <f t="shared" si="13"/>
+        <v>43070</v>
+      </c>
+      <c r="B229" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C229" s="13"/>
+      <c r="D229" s="39">
+        <v>4</v>
+      </c>
       <c r="E229" s="9"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G229" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H229" s="39"/>
       <c r="I229" s="9"/>
       <c r="J229" s="11"/>
-      <c r="K229" s="20"/>
-    </row>
-    <row r="230" spans="1:11">
-      <c r="A230" s="40">
-        <f t="shared" si="14"/>
-        <v>43070</v>
-      </c>
+      <c r="K229" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C230" s="13"/>
       <c r="D230" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E230" s="9"/>
       <c r="F230" s="20"/>
@@ -8134,57 +8183,57 @@
       <c r="H230" s="39"/>
       <c r="I230" s="9"/>
       <c r="J230" s="11"/>
-      <c r="K230" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11">
+      <c r="K230" s="51">
+        <v>45269</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
-      <c r="B231" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C231" s="13"/>
-      <c r="D231" s="39">
-        <v>1</v>
-      </c>
+      <c r="B231" s="20"/>
+      <c r="C231" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D231" s="39"/>
       <c r="E231" s="9"/>
       <c r="F231" s="20"/>
-      <c r="G231" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G231" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H231" s="39"/>
       <c r="I231" s="9"/>
       <c r="J231" s="11"/>
-      <c r="K231" s="51">
-        <v>45269</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11">
-      <c r="A232" s="40"/>
+      <c r="K231" s="20"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="48" t="s">
+        <v>116</v>
+      </c>
       <c r="B232" s="20"/>
-      <c r="C232" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C232" s="13"/>
       <c r="D232" s="39"/>
       <c r="E232" s="9"/>
       <c r="F232" s="20"/>
-      <c r="G232" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G232" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H232" s="39"/>
       <c r="I232" s="9"/>
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
-      <c r="A233" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B233" s="20"/>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="40">
+        <v>43101</v>
+      </c>
+      <c r="B233" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="C233" s="13"/>
-      <c r="D233" s="39"/>
+      <c r="D233" s="39">
+        <v>5</v>
+      </c>
       <c r="E233" s="9"/>
       <c r="F233" s="20"/>
       <c r="G233" s="42" t="str">
@@ -8194,22 +8243,20 @@
       <c r="H233" s="39"/>
       <c r="I233" s="9"/>
       <c r="J233" s="11"/>
-      <c r="K233" s="20"/>
-    </row>
-    <row r="234" spans="1:11">
-      <c r="A234" s="40">
-        <v>43101</v>
-      </c>
+      <c r="K233" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C234" s="13"/>
-      <c r="D234" s="39">
-        <v>5</v>
-      </c>
+      <c r="D234" s="39"/>
       <c r="E234" s="9"/>
       <c r="F234" s="20"/>
-      <c r="G234" s="42" t="str">
+      <c r="G234" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -8217,266 +8264,267 @@
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
-      <c r="B235" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C235" s="13"/>
+      <c r="B235" s="20"/>
+      <c r="C235" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D235" s="39"/>
       <c r="E235" s="9"/>
       <c r="F235" s="20"/>
-      <c r="G235" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G235" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H235" s="39"/>
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
-      <c r="K235" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11">
-      <c r="A236" s="40"/>
-      <c r="B236" s="20"/>
+      <c r="K235" s="20"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="41">
+        <f>EDATE(A233,1)</f>
+        <v>43132</v>
+      </c>
+      <c r="B236" s="15"/>
       <c r="C236" s="13">
         <v>1.25</v>
       </c>
-      <c r="D236" s="39"/>
-      <c r="E236" s="9"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H236" s="39"/>
-      <c r="I236" s="9"/>
-      <c r="J236" s="11"/>
-      <c r="K236" s="20"/>
-    </row>
-    <row r="237" spans="1:11">
+      <c r="D236" s="43"/>
+      <c r="E236" s="53"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H236" s="43"/>
+      <c r="I236" s="53"/>
+      <c r="J236" s="12"/>
+      <c r="K236" s="15"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="41">
-        <f>EDATE(A234,1)</f>
-        <v>43132</v>
-      </c>
-      <c r="B237" s="15"/>
-      <c r="C237" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D237" s="43"/>
-      <c r="E237" s="53"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H237" s="43"/>
-      <c r="I237" s="53"/>
-      <c r="J237" s="12"/>
-      <c r="K237" s="15"/>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" s="41">
-        <f t="shared" ref="A238:A253" si="15">EDATE(A237,1)</f>
+        <f t="shared" ref="A237:A252" si="14">EDATE(A236,1)</f>
         <v>43160</v>
       </c>
+      <c r="B237" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C237" s="13"/>
+      <c r="D237" s="39"/>
+      <c r="E237" s="9"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H237" s="39">
+        <v>1</v>
+      </c>
+      <c r="I237" s="9"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="51">
+        <v>44998</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C238" s="13"/>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H238" s="39">
-        <v>1</v>
-      </c>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="39"/>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
-      <c r="K238" s="51">
-        <v>44998</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
+      <c r="K238" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
-      <c r="B239" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C239" s="13"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
       <c r="F239" s="20"/>
-      <c r="G239" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G239" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H239" s="39"/>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
-      <c r="K239" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
-      <c r="A240" s="40"/>
-      <c r="B240" s="20"/>
-      <c r="C240" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K239" s="20"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="41">
+        <f>EDATE(A237,1)</f>
+        <v>43191</v>
+      </c>
+      <c r="B240" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C240" s="13"/>
       <c r="D240" s="39"/>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
-      <c r="G240" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H240" s="39"/>
+      <c r="G240" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="39">
+        <v>1</v>
+      </c>
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
-      <c r="K240" s="20"/>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="A241" s="41">
-        <f>EDATE(A238,1)</f>
-        <v>43191</v>
-      </c>
-      <c r="B241" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C241" s="13"/>
+      <c r="K240" s="51">
+        <v>45028</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A241" s="40"/>
+      <c r="B241" s="20"/>
+      <c r="C241" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D241" s="39"/>
       <c r="E241" s="9"/>
       <c r="F241" s="20"/>
-      <c r="G241" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H241" s="39">
-        <v>1</v>
-      </c>
+      <c r="G241" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H241" s="39"/>
       <c r="I241" s="9"/>
       <c r="J241" s="11"/>
-      <c r="K241" s="51">
-        <v>45028</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
-      <c r="A242" s="40"/>
-      <c r="B242" s="20"/>
-      <c r="C242" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K241" s="20"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A242" s="41">
+        <f>EDATE(A240,1)</f>
+        <v>43221</v>
+      </c>
+      <c r="B242" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C242" s="13"/>
       <c r="D242" s="39"/>
       <c r="E242" s="9"/>
       <c r="F242" s="20"/>
-      <c r="G242" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H242" s="39"/>
+      <c r="G242" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H242" s="39">
+        <v>1</v>
+      </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="20"/>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" s="41">
-        <f>EDATE(A241,1)</f>
-        <v>43221</v>
-      </c>
+      <c r="K242" s="51">
+        <v>45053</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="C243" s="13"/>
-      <c r="D243" s="39"/>
+      <c r="D243" s="39">
+        <v>9</v>
+      </c>
       <c r="E243" s="9"/>
       <c r="F243" s="20"/>
-      <c r="G243" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H243" s="39">
-        <v>1</v>
-      </c>
+      <c r="G243" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H243" s="39"/>
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
-      <c r="K243" s="51">
-        <v>45053</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11">
+      <c r="K243" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
-      <c r="B244" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C244" s="13"/>
-      <c r="D244" s="39">
-        <v>9</v>
-      </c>
+      <c r="B244" s="20"/>
+      <c r="C244" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D244" s="39"/>
       <c r="E244" s="9"/>
       <c r="F244" s="20"/>
-      <c r="G244" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G244" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H244" s="39"/>
       <c r="I244" s="9"/>
       <c r="J244" s="11"/>
-      <c r="K244" s="20" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="A245" s="40"/>
-      <c r="B245" s="20"/>
-      <c r="C245" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D245" s="39"/>
+      <c r="K244" s="20"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A245" s="41">
+        <f>EDATE(A242,1)</f>
+        <v>43252</v>
+      </c>
+      <c r="B245" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C245" s="13"/>
+      <c r="D245" s="39">
+        <v>10</v>
+      </c>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G245" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H245" s="39"/>
       <c r="I245" s="9"/>
       <c r="J245" s="11"/>
-      <c r="K245" s="20"/>
-    </row>
-    <row r="246" spans="1:11">
-      <c r="A246" s="41">
-        <f>EDATE(A243,1)</f>
-        <v>43252</v>
-      </c>
-      <c r="B246" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C246" s="13"/>
-      <c r="D246" s="39">
-        <v>10</v>
-      </c>
+      <c r="K245" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A246" s="40"/>
+      <c r="B246" s="20"/>
+      <c r="C246" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G246" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="20" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
-      <c r="A247" s="40"/>
+      <c r="K246" s="20"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A247" s="41">
+        <f>EDATE(A245,1)</f>
+        <v>43282</v>
+      </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13">
         <v>1.25</v>
@@ -8484,7 +8532,7 @@
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13">
+      <c r="G247" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -8493,10 +8541,10 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="41">
-        <f>EDATE(A246,1)</f>
-        <v>43282</v>
+        <f t="shared" si="14"/>
+        <v>43313</v>
       </c>
       <c r="B248" s="20"/>
       <c r="C248" s="13">
@@ -8514,10 +8562,10 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="41">
-        <f t="shared" si="15"/>
-        <v>43313</v>
+        <f t="shared" si="14"/>
+        <v>43344</v>
       </c>
       <c r="B249" s="20"/>
       <c r="C249" s="13">
@@ -8535,10 +8583,10 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="41">
-        <f t="shared" si="15"/>
-        <v>43344</v>
+        <f t="shared" si="14"/>
+        <v>43374</v>
       </c>
       <c r="B250" s="20"/>
       <c r="C250" s="13">
@@ -8556,10 +8604,10 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="41">
-        <f t="shared" si="15"/>
-        <v>43374</v>
+        <f t="shared" si="14"/>
+        <v>43405</v>
       </c>
       <c r="B251" s="20"/>
       <c r="C251" s="13">
@@ -8577,10 +8625,10 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="41">
-        <f t="shared" si="15"/>
-        <v>43405</v>
+        <f t="shared" si="14"/>
+        <v>43435</v>
       </c>
       <c r="B252" s="20"/>
       <c r="C252" s="13">
@@ -8598,32 +8646,31 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
-      <c r="A253" s="41">
-        <f t="shared" si="15"/>
-        <v>43435</v>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A253" s="54" t="s">
+        <v>123</v>
       </c>
       <c r="B253" s="20"/>
-      <c r="C253" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C253" s="13"/>
       <c r="D253" s="39"/>
       <c r="E253" s="9"/>
       <c r="F253" s="20"/>
-      <c r="G253" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G253" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H253" s="39"/>
       <c r="I253" s="9"/>
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
-      <c r="A254" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="B254" s="20"/>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A254" s="40">
+        <v>43466</v>
+      </c>
+      <c r="B254" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C254" s="13"/>
       <c r="D254" s="39"/>
       <c r="E254" s="9"/>
@@ -8632,37 +8679,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H254" s="39"/>
+      <c r="H254" s="39">
+        <v>1</v>
+      </c>
       <c r="I254" s="9"/>
       <c r="J254" s="11"/>
-      <c r="K254" s="20"/>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" s="40">
-        <v>43466</v>
-      </c>
-      <c r="B255" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C255" s="13"/>
+      <c r="K254" s="51">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A255" s="40"/>
+      <c r="B255" s="20"/>
+      <c r="C255" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D255" s="39"/>
       <c r="E255" s="9"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H255" s="39">
-        <v>1</v>
-      </c>
+      <c r="G255" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H255" s="39"/>
       <c r="I255" s="9"/>
       <c r="J255" s="11"/>
-      <c r="K255" s="51">
-        <v>44943</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" s="40"/>
+      <c r="K255" s="20"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A256" s="40">
+        <f>EDATE(A254,1)</f>
+        <v>43497</v>
+      </c>
       <c r="B256" s="20"/>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -8670,7 +8718,7 @@
       <c r="D256" s="39"/>
       <c r="E256" s="9"/>
       <c r="F256" s="20"/>
-      <c r="G256" s="13">
+      <c r="G256" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -8679,10 +8727,10 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
-        <f>EDATE(A255,1)</f>
-        <v>43497</v>
+        <f t="shared" ref="A257:A270" si="15">EDATE(A256,1)</f>
+        <v>43525</v>
       </c>
       <c r="B257" s="20"/>
       <c r="C257" s="13">
@@ -8700,10 +8748,10 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
-        <f t="shared" ref="A258:A271" si="16">EDATE(A257,1)</f>
-        <v>43525</v>
+        <f t="shared" si="15"/>
+        <v>43556</v>
       </c>
       <c r="B258" s="20"/>
       <c r="C258" s="13">
@@ -8721,83 +8769,84 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
-        <f t="shared" si="16"/>
-        <v>43556</v>
-      </c>
-      <c r="B259" s="20"/>
-      <c r="C259" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>43586</v>
+      </c>
+      <c r="B259" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C259" s="13"/>
       <c r="D259" s="39"/>
       <c r="E259" s="9"/>
       <c r="F259" s="20"/>
-      <c r="G259" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H259" s="39"/>
+      <c r="G259" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H259" s="39">
+        <v>1</v>
+      </c>
       <c r="I259" s="9"/>
       <c r="J259" s="11"/>
-      <c r="K259" s="20"/>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" s="40">
-        <f t="shared" si="16"/>
-        <v>43586</v>
-      </c>
-      <c r="B260" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C260" s="13"/>
+      <c r="K259" s="51">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A260" s="40"/>
+      <c r="B260" s="20"/>
+      <c r="C260" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D260" s="39"/>
       <c r="E260" s="9"/>
       <c r="F260" s="20"/>
-      <c r="G260" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H260" s="39">
-        <v>1</v>
-      </c>
+      <c r="G260" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H260" s="39"/>
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
-      <c r="K260" s="51">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
-      <c r="A261" s="40"/>
-      <c r="B261" s="20"/>
-      <c r="C261" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K260" s="20"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A261" s="40">
+        <f>EDATE(A259,1)</f>
+        <v>43617</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C261" s="13"/>
       <c r="D261" s="39"/>
       <c r="E261" s="9"/>
       <c r="F261" s="20"/>
-      <c r="G261" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G261" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H261" s="39"/>
       <c r="I261" s="9"/>
       <c r="J261" s="11"/>
-      <c r="K261" s="20"/>
-    </row>
-    <row r="262" spans="1:11">
-      <c r="A262" s="40">
-        <f>EDATE(A260,1)</f>
-        <v>43617</v>
-      </c>
+      <c r="K261" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="C262" s="13"/>
-      <c r="D262" s="39"/>
+      <c r="D262" s="39">
+        <v>4</v>
+      </c>
       <c r="E262" s="9"/>
       <c r="F262" s="20"/>
-      <c r="G262" s="42" t="str">
+      <c r="G262" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
@@ -8805,33 +8854,32 @@
       <c r="I262" s="9"/>
       <c r="J262" s="11"/>
       <c r="K262" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
-      <c r="B263" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C263" s="13"/>
-      <c r="D263" s="39">
-        <v>4</v>
-      </c>
+      <c r="B263" s="20"/>
+      <c r="C263" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D263" s="39"/>
       <c r="E263" s="9"/>
       <c r="F263" s="20"/>
-      <c r="G263" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G263" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H263" s="39"/>
       <c r="I263" s="9"/>
       <c r="J263" s="11"/>
-      <c r="K263" s="20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11">
-      <c r="A264" s="40"/>
+      <c r="K263" s="20"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A264" s="40">
+        <f>EDATE(A261,1)</f>
+        <v>43647</v>
+      </c>
       <c r="B264" s="20"/>
       <c r="C264" s="13">
         <v>1.25</v>
@@ -8839,7 +8887,7 @@
       <c r="D264" s="39"/>
       <c r="E264" s="9"/>
       <c r="F264" s="20"/>
-      <c r="G264" s="13">
+      <c r="G264" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -8848,10 +8896,10 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
-        <f>EDATE(A262,1)</f>
-        <v>43647</v>
+        <f t="shared" si="15"/>
+        <v>43678</v>
       </c>
       <c r="B265" s="20"/>
       <c r="C265" s="13">
@@ -8869,10 +8917,10 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
-        <f t="shared" si="16"/>
-        <v>43678</v>
+        <f t="shared" si="15"/>
+        <v>43709</v>
       </c>
       <c r="B266" s="20"/>
       <c r="C266" s="13">
@@ -8890,52 +8938,52 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
-        <f t="shared" si="16"/>
-        <v>43709</v>
-      </c>
-      <c r="B267" s="20"/>
-      <c r="C267" s="13">
-        <v>1.25</v>
-      </c>
+        <f t="shared" si="15"/>
+        <v>43739</v>
+      </c>
+      <c r="B267" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C267" s="13"/>
       <c r="D267" s="39"/>
       <c r="E267" s="9"/>
       <c r="F267" s="20"/>
-      <c r="G267" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G267" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H267" s="39"/>
       <c r="I267" s="9"/>
       <c r="J267" s="11"/>
-      <c r="K267" s="20"/>
-    </row>
-    <row r="268" spans="1:11">
-      <c r="A268" s="40">
-        <f t="shared" si="16"/>
-        <v>43739</v>
-      </c>
-      <c r="B268" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C268" s="13"/>
+      <c r="K267" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A268" s="40"/>
+      <c r="B268" s="20"/>
+      <c r="C268" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D268" s="39"/>
       <c r="E268" s="9"/>
       <c r="F268" s="20"/>
-      <c r="G268" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G268" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H268" s="39"/>
       <c r="I268" s="9"/>
       <c r="J268" s="11"/>
-      <c r="K268" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11">
-      <c r="A269" s="40"/>
+      <c r="K268" s="20"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A269" s="40">
+        <f>EDATE(A267,1)</f>
+        <v>43770</v>
+      </c>
       <c r="B269" s="20"/>
       <c r="C269" s="13">
         <v>1.25</v>
@@ -8943,7 +8991,7 @@
       <c r="D269" s="39"/>
       <c r="E269" s="9"/>
       <c r="F269" s="20"/>
-      <c r="G269" s="13">
+      <c r="G269" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -8952,16 +9000,20 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
-        <f>EDATE(A268,1)</f>
-        <v>43770</v>
-      </c>
-      <c r="B270" s="20"/>
+        <f t="shared" si="15"/>
+        <v>43800</v>
+      </c>
+      <c r="B270" s="20" t="s">
+        <v>128</v>
+      </c>
       <c r="C270" s="13">
         <v>1.25</v>
       </c>
-      <c r="D270" s="39"/>
+      <c r="D270" s="39">
+        <v>1</v>
+      </c>
       <c r="E270" s="9"/>
       <c r="F270" s="20"/>
       <c r="G270" s="42">
@@ -8973,94 +9025,90 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11">
-      <c r="A271" s="40">
-        <f t="shared" si="16"/>
-        <v>43800</v>
-      </c>
-      <c r="B271" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C271" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D271" s="39">
-        <v>1</v>
-      </c>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A271" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B271" s="20"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="39"/>
       <c r="E271" s="9"/>
       <c r="F271" s="20"/>
-      <c r="G271" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G271" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H271" s="39"/>
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
-      <c r="A272" s="48" t="s">
-        <v>129</v>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A272" s="40">
+        <v>43831</v>
       </c>
       <c r="B272" s="20"/>
-      <c r="C272" s="13"/>
+      <c r="C272" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D272" s="39"/>
       <c r="E272" s="9"/>
       <c r="F272" s="20"/>
-      <c r="G272" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G272" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H272" s="39"/>
       <c r="I272" s="9"/>
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B273" s="20"/>
-      <c r="C273" s="13">
-        <v>1.25</v>
-      </c>
+        <f>EDATE(A272,1)</f>
+        <v>43862</v>
+      </c>
+      <c r="B273" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C273" s="13"/>
       <c r="D273" s="39"/>
       <c r="E273" s="9"/>
       <c r="F273" s="20"/>
-      <c r="G273" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G273" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H273" s="39"/>
       <c r="I273" s="9"/>
       <c r="J273" s="11"/>
-      <c r="K273" s="20"/>
-    </row>
-    <row r="274" spans="1:11">
-      <c r="A274" s="40">
-        <f>EDATE(A273,1)</f>
-        <v>43862</v>
-      </c>
-      <c r="B274" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C274" s="13"/>
+      <c r="K273" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A274" s="40"/>
+      <c r="B274" s="20"/>
+      <c r="C274" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D274" s="39"/>
       <c r="E274" s="9"/>
       <c r="F274" s="20"/>
-      <c r="G274" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G274" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H274" s="39"/>
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
-      <c r="K274" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
-      <c r="A275" s="40"/>
+      <c r="K274" s="20"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A275" s="40">
+        <f>EDATE(A273,1)</f>
+        <v>43891</v>
+      </c>
       <c r="B275" s="20"/>
       <c r="C275" s="13">
         <v>1.25</v>
@@ -9068,7 +9116,7 @@
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13">
+      <c r="G275" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -9077,10 +9125,10 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
-        <f>EDATE(A274,1)</f>
-        <v>43891</v>
+        <f t="shared" ref="A276:A283" si="16">EDATE(A275,1)</f>
+        <v>43922</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -9098,10 +9146,10 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
-        <f t="shared" ref="A277:A284" si="17">EDATE(A276,1)</f>
-        <v>43922</v>
+        <f t="shared" si="16"/>
+        <v>43952</v>
       </c>
       <c r="B277" s="20"/>
       <c r="C277" s="13">
@@ -9119,10 +9167,10 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
-        <f t="shared" si="17"/>
-        <v>43952</v>
+        <f t="shared" si="16"/>
+        <v>43983</v>
       </c>
       <c r="B278" s="20"/>
       <c r="C278" s="13">
@@ -9140,10 +9188,10 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
-        <f t="shared" si="17"/>
-        <v>43983</v>
+        <f t="shared" si="16"/>
+        <v>44013</v>
       </c>
       <c r="B279" s="20"/>
       <c r="C279" s="13">
@@ -9161,10 +9209,10 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
-        <f t="shared" si="17"/>
-        <v>44013</v>
+        <f t="shared" si="16"/>
+        <v>44044</v>
       </c>
       <c r="B280" s="20"/>
       <c r="C280" s="13">
@@ -9182,10 +9230,10 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
-        <f t="shared" si="17"/>
-        <v>44044</v>
+        <f t="shared" si="16"/>
+        <v>44075</v>
       </c>
       <c r="B281" s="20"/>
       <c r="C281" s="13">
@@ -9203,10 +9251,10 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
-        <f t="shared" si="17"/>
-        <v>44075</v>
+        <f t="shared" si="16"/>
+        <v>44105</v>
       </c>
       <c r="B282" s="20"/>
       <c r="C282" s="13">
@@ -9224,96 +9272,95 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
-        <f t="shared" si="17"/>
-        <v>44105</v>
-      </c>
-      <c r="B283" s="20"/>
+        <f t="shared" si="16"/>
+        <v>44136</v>
+      </c>
+      <c r="B283" s="15"/>
       <c r="C283" s="13">
         <v>1.25</v>
       </c>
-      <c r="D283" s="39"/>
-      <c r="E283" s="9"/>
-      <c r="F283" s="20"/>
+      <c r="D283" s="43"/>
+      <c r="E283" s="53"/>
+      <c r="F283" s="15"/>
       <c r="G283" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H283" s="39"/>
-      <c r="I283" s="9"/>
-      <c r="J283" s="11"/>
-      <c r="K283" s="20"/>
-    </row>
-    <row r="284" spans="1:11">
+      <c r="H283" s="43"/>
+      <c r="I283" s="53"/>
+      <c r="J283" s="12"/>
+      <c r="K283" s="15"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
-        <f t="shared" si="17"/>
-        <v>44136</v>
-      </c>
-      <c r="B284" s="15"/>
-      <c r="C284" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D284" s="43"/>
-      <c r="E284" s="53"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H284" s="43"/>
-      <c r="I284" s="53"/>
-      <c r="J284" s="12"/>
-      <c r="K284" s="15"/>
-    </row>
-    <row r="285" spans="1:11">
-      <c r="A285" s="40">
-        <f>EDATE(A284,1)</f>
+        <f>EDATE(A283,1)</f>
         <v>44166</v>
       </c>
-      <c r="B285" s="20" t="s">
+      <c r="B284" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C285" s="13"/>
-      <c r="D285" s="39">
+      <c r="C284" s="13"/>
+      <c r="D284" s="39">
         <v>5</v>
       </c>
+      <c r="E284" s="9"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H284" s="39"/>
+      <c r="I284" s="9"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A285" s="40"/>
+      <c r="B285" s="20"/>
+      <c r="C285" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D285" s="39"/>
       <c r="E285" s="9"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G285" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H285" s="39"/>
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
-      <c r="K285" s="20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
-      <c r="A286" s="40"/>
+      <c r="K285" s="20"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A286" s="48" t="s">
+        <v>133</v>
+      </c>
       <c r="B286" s="20"/>
-      <c r="C286" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C286" s="13"/>
       <c r="D286" s="39"/>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G286" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11">
-      <c r="A287" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B287" s="20"/>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A287" s="40">
+        <v>44197</v>
+      </c>
+      <c r="B287" s="20" t="s">
+        <v>66</v>
+      </c>
       <c r="C287" s="13"/>
       <c r="D287" s="39"/>
       <c r="E287" s="9"/>
@@ -9325,73 +9372,74 @@
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
-      <c r="K287" s="20"/>
-    </row>
-    <row r="288" spans="1:11">
-      <c r="A288" s="40">
-        <v>44197</v>
-      </c>
-      <c r="B288" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C288" s="13"/>
+      <c r="K287" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A288" s="40"/>
+      <c r="B288" s="20"/>
+      <c r="C288" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D288" s="39"/>
       <c r="E288" s="9"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G288" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
-      <c r="K288" s="20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11">
-      <c r="A289" s="40"/>
-      <c r="B289" s="20"/>
-      <c r="C289" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K288" s="20"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A289" s="40">
+        <f>EDATE(A287,1)</f>
+        <v>44228</v>
+      </c>
+      <c r="B289" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C289" s="13"/>
       <c r="D289" s="39"/>
       <c r="E289" s="9"/>
       <c r="F289" s="20"/>
-      <c r="G289" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G289" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H289" s="39"/>
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
-      <c r="K289" s="20"/>
-    </row>
-    <row r="290" spans="1:11">
-      <c r="A290" s="40">
-        <f>EDATE(A288,1)</f>
-        <v>44228</v>
-      </c>
-      <c r="B290" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C290" s="13"/>
+      <c r="K289" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A290" s="40"/>
+      <c r="B290" s="20"/>
+      <c r="C290" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D290" s="39"/>
       <c r="E290" s="9"/>
       <c r="F290" s="20"/>
-      <c r="G290" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G290" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H290" s="39"/>
       <c r="I290" s="9"/>
       <c r="J290" s="11"/>
-      <c r="K290" s="20" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11">
-      <c r="A291" s="40"/>
+      <c r="K290" s="20"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A291" s="40">
+        <f>EDATE(A289,1)</f>
+        <v>44256</v>
+      </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13">
         <v>1.25</v>
@@ -9399,7 +9447,7 @@
       <c r="D291" s="39"/>
       <c r="E291" s="9"/>
       <c r="F291" s="20"/>
-      <c r="G291" s="13">
+      <c r="G291" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -9408,10 +9456,10 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
-        <f>EDATE(A290,1)</f>
-        <v>44256</v>
+        <f t="shared" ref="A292:A300" si="17">EDATE(A291,1)</f>
+        <v>44287</v>
       </c>
       <c r="B292" s="20"/>
       <c r="C292" s="13">
@@ -9429,10 +9477,10 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
-        <f t="shared" ref="A293:A301" si="18">EDATE(A292,1)</f>
-        <v>44287</v>
+        <f t="shared" si="17"/>
+        <v>44317</v>
       </c>
       <c r="B293" s="20"/>
       <c r="C293" s="13">
@@ -9450,10 +9498,10 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
-        <f t="shared" si="18"/>
-        <v>44317</v>
+        <f t="shared" si="17"/>
+        <v>44348</v>
       </c>
       <c r="B294" s="20"/>
       <c r="C294" s="13">
@@ -9471,10 +9519,10 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
-        <f t="shared" si="18"/>
-        <v>44348</v>
+        <f t="shared" si="17"/>
+        <v>44378</v>
       </c>
       <c r="B295" s="20"/>
       <c r="C295" s="13">
@@ -9492,10 +9540,10 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
-        <f t="shared" si="18"/>
-        <v>44378</v>
+        <f t="shared" si="17"/>
+        <v>44409</v>
       </c>
       <c r="B296" s="20"/>
       <c r="C296" s="13">
@@ -9513,10 +9561,10 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
-        <f t="shared" si="18"/>
-        <v>44409</v>
+        <f t="shared" si="17"/>
+        <v>44440</v>
       </c>
       <c r="B297" s="20"/>
       <c r="C297" s="13">
@@ -9534,10 +9582,10 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
-        <f t="shared" si="18"/>
-        <v>44440</v>
+        <f t="shared" si="17"/>
+        <v>44470</v>
       </c>
       <c r="B298" s="20"/>
       <c r="C298" s="13">
@@ -9555,10 +9603,10 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
-        <f t="shared" si="18"/>
-        <v>44470</v>
+        <f>EDATE(A298,1)</f>
+        <v>44501</v>
       </c>
       <c r="B299" s="20"/>
       <c r="C299" s="13">
@@ -9576,16 +9624,20 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
-        <f>EDATE(A299,1)</f>
-        <v>44501</v>
-      </c>
-      <c r="B300" s="20"/>
+        <f t="shared" si="17"/>
+        <v>44531</v>
+      </c>
+      <c r="B300" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C300" s="13">
         <v>1.25</v>
       </c>
-      <c r="D300" s="39"/>
+      <c r="D300" s="39">
+        <v>5</v>
+      </c>
       <c r="E300" s="9"/>
       <c r="F300" s="20"/>
       <c r="G300" s="42">
@@ -9597,52 +9649,48 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11">
-      <c r="A301" s="40">
-        <f t="shared" si="18"/>
-        <v>44531</v>
-      </c>
-      <c r="B301" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C301" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D301" s="39">
-        <v>5</v>
-      </c>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A301" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B301" s="20"/>
+      <c r="C301" s="13"/>
+      <c r="D301" s="39"/>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G301" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
-      <c r="A302" s="48" t="s">
-        <v>135</v>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A302" s="40">
+        <v>44562</v>
       </c>
       <c r="B302" s="20"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G302" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
-        <v>44562</v>
+        <f>EDATE(A302,1)</f>
+        <v>44593</v>
       </c>
       <c r="B303" s="20"/>
       <c r="C303" s="13">
@@ -9660,10 +9708,10 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
-        <f>EDATE(A303,1)</f>
-        <v>44593</v>
+        <f t="shared" ref="A304:A309" si="18">EDATE(A303,1)</f>
+        <v>44621</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13">
@@ -9681,10 +9729,10 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
-        <f t="shared" ref="A305:A311" si="19">EDATE(A304,1)</f>
-        <v>44621</v>
+        <f t="shared" si="18"/>
+        <v>44652</v>
       </c>
       <c r="B305" s="20"/>
       <c r="C305" s="13">
@@ -9702,10 +9750,10 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
-        <f t="shared" si="19"/>
-        <v>44652</v>
+        <f t="shared" si="18"/>
+        <v>44682</v>
       </c>
       <c r="B306" s="20"/>
       <c r="C306" s="13">
@@ -9723,10 +9771,10 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
-        <f t="shared" si="19"/>
-        <v>44682</v>
+        <f t="shared" si="18"/>
+        <v>44713</v>
       </c>
       <c r="B307" s="20"/>
       <c r="C307" s="13">
@@ -9744,10 +9792,10 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
-        <f t="shared" si="19"/>
-        <v>44713</v>
+        <f t="shared" si="18"/>
+        <v>44743</v>
       </c>
       <c r="B308" s="20"/>
       <c r="C308" s="13">
@@ -9765,12 +9813,14 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
-        <f t="shared" si="19"/>
-        <v>44743</v>
-      </c>
-      <c r="B309" s="20"/>
+        <f t="shared" si="18"/>
+        <v>44774</v>
+      </c>
+      <c r="B309" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="C309" s="13">
         <v>1.25</v>
       </c>
@@ -9781,102 +9831,1444 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H309" s="39"/>
+      <c r="H309" s="39">
+        <v>1</v>
+      </c>
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
-      <c r="K309" s="20"/>
-    </row>
-    <row r="310" spans="1:11">
+      <c r="K309" s="51">
+        <v>44789</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
-        <f t="shared" si="19"/>
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C310" s="13"/>
+        <v>139</v>
+      </c>
+      <c r="C310" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D310" s="39"/>
       <c r="E310" s="9"/>
       <c r="F310" s="20"/>
-      <c r="G310" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H310" s="39">
-        <v>1</v>
-      </c>
+      <c r="G310" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H310" s="39"/>
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
-      <c r="K310" s="51">
-        <v>45154</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11">
+      <c r="K310" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
-      <c r="B311" s="20"/>
-      <c r="C311" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D311" s="39"/>
+      <c r="B311" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C311" s="13"/>
+      <c r="D311" s="39">
+        <v>1</v>
+      </c>
       <c r="E311" s="9"/>
       <c r="F311" s="20"/>
-      <c r="G311" s="13"/>
+      <c r="G311" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H311" s="39"/>
       <c r="I311" s="9"/>
       <c r="J311" s="11"/>
-      <c r="K311" s="20"/>
-    </row>
-    <row r="312" spans="1:11">
-      <c r="A312" s="40"/>
-      <c r="B312" s="20"/>
-      <c r="C312" s="13"/>
+      <c r="K311" s="49">
+        <v>44814</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A312" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B312" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C312" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D312" s="39"/>
       <c r="E312" s="9"/>
       <c r="F312" s="20"/>
-      <c r="G312" s="13"/>
+      <c r="G312" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H312" s="39"/>
       <c r="I312" s="9"/>
       <c r="J312" s="11"/>
-      <c r="K312" s="20"/>
-    </row>
-    <row r="313" spans="1:11">
-      <c r="A313" s="40"/>
+      <c r="K312" s="49">
+        <v>44858</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A313" s="40">
+        <v>44866</v>
+      </c>
       <c r="B313" s="20"/>
-      <c r="C313" s="13"/>
+      <c r="C313" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D313" s="39"/>
       <c r="E313" s="9"/>
       <c r="F313" s="20"/>
-      <c r="G313" s="13"/>
+      <c r="G313" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H313" s="39"/>
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11">
-      <c r="A314" s="40"/>
-      <c r="B314" s="20"/>
-      <c r="C314" s="13"/>
-      <c r="D314" s="39"/>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A314" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B314" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C314" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D314" s="39">
+        <v>5</v>
+      </c>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13"/>
+      <c r="G314" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H314" s="39"/>
       <c r="I314" s="9"/>
       <c r="J314" s="11"/>
-      <c r="K314" s="20"/>
-    </row>
-    <row r="315" spans="1:11">
-      <c r="A315" s="41"/>
+      <c r="K314" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A315" s="48" t="s">
+        <v>136</v>
+      </c>
       <c r="B315" s="15"/>
-      <c r="C315" s="42"/>
+      <c r="C315" s="13"/>
       <c r="D315" s="43"/>
       <c r="E315" s="53"/>
       <c r="F315" s="15"/>
-      <c r="G315" s="42"/>
+      <c r="G315" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H315" s="43"/>
       <c r="I315" s="53"/>
       <c r="J315" s="12"/>
       <c r="K315" s="15"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A316" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B316" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C316" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D316" s="43"/>
+      <c r="E316" s="53"/>
+      <c r="F316" s="15"/>
+      <c r="G316" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H316" s="43"/>
+      <c r="I316" s="53"/>
+      <c r="J316" s="12"/>
+      <c r="K316" s="68">
+        <v>44951</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A317" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B317" s="20"/>
+      <c r="C317" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D317" s="39"/>
+      <c r="E317" s="9"/>
+      <c r="F317" s="20"/>
+      <c r="G317" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H317" s="39"/>
+      <c r="I317" s="9"/>
+      <c r="J317" s="11"/>
+      <c r="K317" s="20"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A318" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B318" s="20"/>
+      <c r="C318" s="13"/>
+      <c r="D318" s="39"/>
+      <c r="E318" s="9"/>
+      <c r="F318" s="20"/>
+      <c r="G318" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H318" s="39"/>
+      <c r="I318" s="9"/>
+      <c r="J318" s="11"/>
+      <c r="K318" s="20"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A319" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B319" s="20"/>
+      <c r="C319" s="13"/>
+      <c r="D319" s="39"/>
+      <c r="E319" s="9"/>
+      <c r="F319" s="20"/>
+      <c r="G319" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H319" s="39"/>
+      <c r="I319" s="9"/>
+      <c r="J319" s="11"/>
+      <c r="K319" s="20"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A320" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B320" s="20"/>
+      <c r="C320" s="13"/>
+      <c r="D320" s="39"/>
+      <c r="E320" s="9"/>
+      <c r="F320" s="20"/>
+      <c r="G320" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H320" s="39"/>
+      <c r="I320" s="9"/>
+      <c r="J320" s="11"/>
+      <c r="K320" s="20"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A321" s="40">
+        <v>45078</v>
+      </c>
+      <c r="B321" s="20"/>
+      <c r="C321" s="13"/>
+      <c r="D321" s="39"/>
+      <c r="E321" s="9"/>
+      <c r="F321" s="20"/>
+      <c r="G321" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H321" s="39"/>
+      <c r="I321" s="9"/>
+      <c r="J321" s="11"/>
+      <c r="K321" s="20"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A322" s="40">
+        <v>45108</v>
+      </c>
+      <c r="B322" s="20"/>
+      <c r="C322" s="13"/>
+      <c r="D322" s="39"/>
+      <c r="E322" s="9"/>
+      <c r="F322" s="20"/>
+      <c r="G322" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H322" s="39"/>
+      <c r="I322" s="9"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="20"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A323" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B323" s="20"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="39"/>
+      <c r="E323" s="9"/>
+      <c r="F323" s="20"/>
+      <c r="G323" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H323" s="39"/>
+      <c r="I323" s="9"/>
+      <c r="J323" s="11"/>
+      <c r="K323" s="20"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A324" s="40">
+        <v>45170</v>
+      </c>
+      <c r="B324" s="20"/>
+      <c r="C324" s="13"/>
+      <c r="D324" s="39"/>
+      <c r="E324" s="9"/>
+      <c r="F324" s="20"/>
+      <c r="G324" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H324" s="39"/>
+      <c r="I324" s="9"/>
+      <c r="J324" s="11"/>
+      <c r="K324" s="20"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A325" s="40">
+        <v>45200</v>
+      </c>
+      <c r="B325" s="20"/>
+      <c r="C325" s="13"/>
+      <c r="D325" s="39"/>
+      <c r="E325" s="9"/>
+      <c r="F325" s="20"/>
+      <c r="G325" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H325" s="39"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="11"/>
+      <c r="K325" s="20"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A326" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B326" s="20"/>
+      <c r="C326" s="13"/>
+      <c r="D326" s="39"/>
+      <c r="E326" s="9"/>
+      <c r="F326" s="20"/>
+      <c r="G326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H326" s="39"/>
+      <c r="I326" s="9"/>
+      <c r="J326" s="11"/>
+      <c r="K326" s="20"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A327" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B327" s="20"/>
+      <c r="C327" s="13"/>
+      <c r="D327" s="39"/>
+      <c r="E327" s="9"/>
+      <c r="F327" s="20"/>
+      <c r="G327" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H327" s="39"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="20"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A328" s="40"/>
+      <c r="B328" s="20"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="39"/>
+      <c r="E328" s="9"/>
+      <c r="F328" s="20"/>
+      <c r="G328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H328" s="39"/>
+      <c r="I328" s="9"/>
+      <c r="J328" s="11"/>
+      <c r="K328" s="20"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A329" s="40"/>
+      <c r="B329" s="20"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="39"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="20"/>
+      <c r="G329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H329" s="39"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="11"/>
+      <c r="K329" s="20"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A330" s="40"/>
+      <c r="B330" s="20"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="39"/>
+      <c r="E330" s="9"/>
+      <c r="F330" s="20"/>
+      <c r="G330" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H330" s="39"/>
+      <c r="I330" s="9"/>
+      <c r="J330" s="11"/>
+      <c r="K330" s="20"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A331" s="40"/>
+      <c r="B331" s="20"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="39"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="20"/>
+      <c r="G331" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H331" s="39"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="20"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A332" s="40"/>
+      <c r="B332" s="20"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="39"/>
+      <c r="E332" s="9"/>
+      <c r="F332" s="20"/>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H332" s="39"/>
+      <c r="I332" s="9"/>
+      <c r="J332" s="11"/>
+      <c r="K332" s="20"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A333" s="40"/>
+      <c r="B333" s="20"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="39"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="20"/>
+      <c r="G333" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H333" s="39"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="11"/>
+      <c r="K333" s="20"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A334" s="40"/>
+      <c r="B334" s="20"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="39"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="20"/>
+      <c r="G334" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H334" s="39"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="11"/>
+      <c r="K334" s="20"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A335" s="40"/>
+      <c r="B335" s="20"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="39"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="20"/>
+      <c r="G335" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H335" s="39"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="11"/>
+      <c r="K335" s="20"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A336" s="40"/>
+      <c r="B336" s="20"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="39"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="20"/>
+      <c r="G336" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H336" s="39"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="11"/>
+      <c r="K336" s="20"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A337" s="40"/>
+      <c r="B337" s="20"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="39"/>
+      <c r="E337" s="9"/>
+      <c r="F337" s="20"/>
+      <c r="G337" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H337" s="39"/>
+      <c r="I337" s="9"/>
+      <c r="J337" s="11"/>
+      <c r="K337" s="20"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A338" s="40"/>
+      <c r="B338" s="20"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="39"/>
+      <c r="E338" s="9"/>
+      <c r="F338" s="20"/>
+      <c r="G338" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H338" s="39"/>
+      <c r="I338" s="9"/>
+      <c r="J338" s="11"/>
+      <c r="K338" s="20"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A339" s="40"/>
+      <c r="B339" s="20"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="39"/>
+      <c r="E339" s="9"/>
+      <c r="F339" s="20"/>
+      <c r="G339" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H339" s="39"/>
+      <c r="I339" s="9"/>
+      <c r="J339" s="11"/>
+      <c r="K339" s="20"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A340" s="40"/>
+      <c r="B340" s="20"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="39"/>
+      <c r="E340" s="9"/>
+      <c r="F340" s="20"/>
+      <c r="G340" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H340" s="39"/>
+      <c r="I340" s="9"/>
+      <c r="J340" s="11"/>
+      <c r="K340" s="20"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A341" s="40"/>
+      <c r="B341" s="20"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="39"/>
+      <c r="E341" s="9"/>
+      <c r="F341" s="20"/>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H341" s="39"/>
+      <c r="I341" s="9"/>
+      <c r="J341" s="11"/>
+      <c r="K341" s="20"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A342" s="40"/>
+      <c r="B342" s="20"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="39"/>
+      <c r="E342" s="9"/>
+      <c r="F342" s="20"/>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H342" s="39"/>
+      <c r="I342" s="9"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="20"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A343" s="40"/>
+      <c r="B343" s="20"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="39"/>
+      <c r="E343" s="9"/>
+      <c r="F343" s="20"/>
+      <c r="G343" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H343" s="39"/>
+      <c r="I343" s="9"/>
+      <c r="J343" s="11"/>
+      <c r="K343" s="20"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A344" s="40"/>
+      <c r="B344" s="20"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="20"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H344" s="39"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="11"/>
+      <c r="K344" s="20"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A345" s="40"/>
+      <c r="B345" s="20"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="39"/>
+      <c r="E345" s="9"/>
+      <c r="F345" s="20"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H345" s="39"/>
+      <c r="I345" s="9"/>
+      <c r="J345" s="11"/>
+      <c r="K345" s="20"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A346" s="40"/>
+      <c r="B346" s="20"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="39"/>
+      <c r="E346" s="9"/>
+      <c r="F346" s="20"/>
+      <c r="G346" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H346" s="39"/>
+      <c r="I346" s="9"/>
+      <c r="J346" s="11"/>
+      <c r="K346" s="20"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A347" s="40"/>
+      <c r="B347" s="20"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="39"/>
+      <c r="E347" s="9"/>
+      <c r="F347" s="20"/>
+      <c r="G347" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H347" s="39"/>
+      <c r="I347" s="9"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="20"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A348" s="40"/>
+      <c r="B348" s="20"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="39"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="20"/>
+      <c r="G348" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H348" s="39"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="20"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A349" s="40"/>
+      <c r="B349" s="20"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="39"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="20"/>
+      <c r="G349" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H349" s="39"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="11"/>
+      <c r="K349" s="20"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A350" s="40"/>
+      <c r="B350" s="20"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="39"/>
+      <c r="E350" s="9"/>
+      <c r="F350" s="20"/>
+      <c r="G350" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H350" s="39"/>
+      <c r="I350" s="9"/>
+      <c r="J350" s="11"/>
+      <c r="K350" s="20"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A351" s="40"/>
+      <c r="B351" s="20"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="39"/>
+      <c r="E351" s="9"/>
+      <c r="F351" s="20"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H351" s="39"/>
+      <c r="I351" s="9"/>
+      <c r="J351" s="11"/>
+      <c r="K351" s="20"/>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A352" s="40"/>
+      <c r="B352" s="20"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="39"/>
+      <c r="E352" s="9"/>
+      <c r="F352" s="20"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H352" s="39"/>
+      <c r="I352" s="9"/>
+      <c r="J352" s="11"/>
+      <c r="K352" s="20"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A353" s="40"/>
+      <c r="B353" s="20"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="39"/>
+      <c r="E353" s="9"/>
+      <c r="F353" s="20"/>
+      <c r="G353" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H353" s="39"/>
+      <c r="I353" s="9"/>
+      <c r="J353" s="11"/>
+      <c r="K353" s="20"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A354" s="40"/>
+      <c r="B354" s="20"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="39"/>
+      <c r="E354" s="9"/>
+      <c r="F354" s="20"/>
+      <c r="G354" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H354" s="39"/>
+      <c r="I354" s="9"/>
+      <c r="J354" s="11"/>
+      <c r="K354" s="20"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A355" s="40"/>
+      <c r="B355" s="20"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="39"/>
+      <c r="E355" s="9"/>
+      <c r="F355" s="20"/>
+      <c r="G355" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H355" s="39"/>
+      <c r="I355" s="9"/>
+      <c r="J355" s="11"/>
+      <c r="K355" s="20"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A356" s="40"/>
+      <c r="B356" s="20"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="9"/>
+      <c r="F356" s="20"/>
+      <c r="G356" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H356" s="39"/>
+      <c r="I356" s="9"/>
+      <c r="J356" s="11"/>
+      <c r="K356" s="20"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A357" s="40"/>
+      <c r="B357" s="20"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="39"/>
+      <c r="E357" s="9"/>
+      <c r="F357" s="20"/>
+      <c r="G357" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H357" s="39"/>
+      <c r="I357" s="9"/>
+      <c r="J357" s="11"/>
+      <c r="K357" s="20"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A358" s="40"/>
+      <c r="B358" s="20"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="39"/>
+      <c r="E358" s="9"/>
+      <c r="F358" s="20"/>
+      <c r="G358" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H358" s="39"/>
+      <c r="I358" s="9"/>
+      <c r="J358" s="11"/>
+      <c r="K358" s="20"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A359" s="40"/>
+      <c r="B359" s="20"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="39"/>
+      <c r="E359" s="9"/>
+      <c r="F359" s="20"/>
+      <c r="G359" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H359" s="39"/>
+      <c r="I359" s="9"/>
+      <c r="J359" s="11"/>
+      <c r="K359" s="20"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A360" s="40"/>
+      <c r="B360" s="20"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="39"/>
+      <c r="E360" s="9"/>
+      <c r="F360" s="20"/>
+      <c r="G360" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H360" s="39"/>
+      <c r="I360" s="9"/>
+      <c r="J360" s="11"/>
+      <c r="K360" s="20"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A361" s="40"/>
+      <c r="B361" s="20"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="39"/>
+      <c r="E361" s="9"/>
+      <c r="F361" s="20"/>
+      <c r="G361" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H361" s="39"/>
+      <c r="I361" s="9"/>
+      <c r="J361" s="11"/>
+      <c r="K361" s="20"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A362" s="40"/>
+      <c r="B362" s="20"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="39"/>
+      <c r="E362" s="9"/>
+      <c r="F362" s="20"/>
+      <c r="G362" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H362" s="39"/>
+      <c r="I362" s="9"/>
+      <c r="J362" s="11"/>
+      <c r="K362" s="20"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A363" s="40"/>
+      <c r="B363" s="20"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="39"/>
+      <c r="E363" s="9"/>
+      <c r="F363" s="20"/>
+      <c r="G363" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H363" s="39"/>
+      <c r="I363" s="9"/>
+      <c r="J363" s="11"/>
+      <c r="K363" s="20"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A364" s="40"/>
+      <c r="B364" s="20"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="39"/>
+      <c r="E364" s="9"/>
+      <c r="F364" s="20"/>
+      <c r="G364" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H364" s="39"/>
+      <c r="I364" s="9"/>
+      <c r="J364" s="11"/>
+      <c r="K364" s="20"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A365" s="40"/>
+      <c r="B365" s="20"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="39"/>
+      <c r="E365" s="9"/>
+      <c r="F365" s="20"/>
+      <c r="G365" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H365" s="39"/>
+      <c r="I365" s="9"/>
+      <c r="J365" s="11"/>
+      <c r="K365" s="20"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A366" s="40"/>
+      <c r="B366" s="20"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="39"/>
+      <c r="E366" s="9"/>
+      <c r="F366" s="20"/>
+      <c r="G366" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H366" s="39"/>
+      <c r="I366" s="9"/>
+      <c r="J366" s="11"/>
+      <c r="K366" s="20"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A367" s="40"/>
+      <c r="B367" s="20"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="39"/>
+      <c r="E367" s="9"/>
+      <c r="F367" s="20"/>
+      <c r="G367" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H367" s="39"/>
+      <c r="I367" s="9"/>
+      <c r="J367" s="11"/>
+      <c r="K367" s="20"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A368" s="40"/>
+      <c r="B368" s="20"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="9"/>
+      <c r="F368" s="20"/>
+      <c r="G368" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H368" s="39"/>
+      <c r="I368" s="9"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="20"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A369" s="40"/>
+      <c r="B369" s="20"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="39"/>
+      <c r="E369" s="9"/>
+      <c r="F369" s="20"/>
+      <c r="G369" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H369" s="39"/>
+      <c r="I369" s="9"/>
+      <c r="J369" s="11"/>
+      <c r="K369" s="20"/>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A370" s="40"/>
+      <c r="B370" s="20"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="39"/>
+      <c r="E370" s="9"/>
+      <c r="F370" s="20"/>
+      <c r="G370" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H370" s="39"/>
+      <c r="I370" s="9"/>
+      <c r="J370" s="11"/>
+      <c r="K370" s="20"/>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A371" s="40"/>
+      <c r="B371" s="20"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="39"/>
+      <c r="E371" s="9"/>
+      <c r="F371" s="20"/>
+      <c r="G371" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H371" s="39"/>
+      <c r="I371" s="9"/>
+      <c r="J371" s="11"/>
+      <c r="K371" s="20"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A372" s="40"/>
+      <c r="B372" s="20"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="39"/>
+      <c r="E372" s="9"/>
+      <c r="F372" s="20"/>
+      <c r="G372" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H372" s="39"/>
+      <c r="I372" s="9"/>
+      <c r="J372" s="11"/>
+      <c r="K372" s="20"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A373" s="40"/>
+      <c r="B373" s="20"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="39"/>
+      <c r="E373" s="9"/>
+      <c r="F373" s="20"/>
+      <c r="G373" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H373" s="39"/>
+      <c r="I373" s="9"/>
+      <c r="J373" s="11"/>
+      <c r="K373" s="20"/>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A374" s="40"/>
+      <c r="B374" s="20"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="39"/>
+      <c r="E374" s="9"/>
+      <c r="F374" s="20"/>
+      <c r="G374" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H374" s="39"/>
+      <c r="I374" s="9"/>
+      <c r="J374" s="11"/>
+      <c r="K374" s="20"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A375" s="40"/>
+      <c r="B375" s="20"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="39"/>
+      <c r="E375" s="9"/>
+      <c r="F375" s="20"/>
+      <c r="G375" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H375" s="39"/>
+      <c r="I375" s="9"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="20"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A376" s="40"/>
+      <c r="B376" s="20"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="39"/>
+      <c r="E376" s="9"/>
+      <c r="F376" s="20"/>
+      <c r="G376" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H376" s="39"/>
+      <c r="I376" s="9"/>
+      <c r="J376" s="11"/>
+      <c r="K376" s="20"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A377" s="40"/>
+      <c r="B377" s="20"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="39"/>
+      <c r="E377" s="9"/>
+      <c r="F377" s="20"/>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H377" s="39"/>
+      <c r="I377" s="9"/>
+      <c r="J377" s="11"/>
+      <c r="K377" s="20"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A378" s="40"/>
+      <c r="B378" s="20"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="39"/>
+      <c r="E378" s="9"/>
+      <c r="F378" s="20"/>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H378" s="39"/>
+      <c r="I378" s="9"/>
+      <c r="J378" s="11"/>
+      <c r="K378" s="20"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A379" s="40"/>
+      <c r="B379" s="20"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="39"/>
+      <c r="E379" s="9"/>
+      <c r="F379" s="20"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H379" s="39"/>
+      <c r="I379" s="9"/>
+      <c r="J379" s="11"/>
+      <c r="K379" s="20"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A380" s="40"/>
+      <c r="B380" s="20"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="39"/>
+      <c r="E380" s="9"/>
+      <c r="F380" s="20"/>
+      <c r="G380" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H380" s="39"/>
+      <c r="I380" s="9"/>
+      <c r="J380" s="11"/>
+      <c r="K380" s="20"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A381" s="40"/>
+      <c r="B381" s="20"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="39"/>
+      <c r="E381" s="9"/>
+      <c r="F381" s="20"/>
+      <c r="G381" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H381" s="39"/>
+      <c r="I381" s="9"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="20"/>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A382" s="40"/>
+      <c r="B382" s="20"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="39"/>
+      <c r="E382" s="9"/>
+      <c r="F382" s="20"/>
+      <c r="G382" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H382" s="39"/>
+      <c r="I382" s="9"/>
+      <c r="J382" s="11"/>
+      <c r="K382" s="20"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A383" s="40"/>
+      <c r="B383" s="20"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="39"/>
+      <c r="E383" s="9"/>
+      <c r="F383" s="20"/>
+      <c r="G383" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H383" s="39"/>
+      <c r="I383" s="9"/>
+      <c r="J383" s="11"/>
+      <c r="K383" s="20"/>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A384" s="40"/>
+      <c r="B384" s="20"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="39"/>
+      <c r="E384" s="9"/>
+      <c r="F384" s="20"/>
+      <c r="G384" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H384" s="39"/>
+      <c r="I384" s="9"/>
+      <c r="J384" s="11"/>
+      <c r="K384" s="20"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A385" s="40"/>
+      <c r="B385" s="20"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="39"/>
+      <c r="E385" s="9"/>
+      <c r="F385" s="20"/>
+      <c r="G385" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H385" s="39"/>
+      <c r="I385" s="9"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="20"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A386" s="40"/>
+      <c r="B386" s="20"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="39"/>
+      <c r="E386" s="9"/>
+      <c r="F386" s="20"/>
+      <c r="G386" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H386" s="39"/>
+      <c r="I386" s="9"/>
+      <c r="J386" s="11"/>
+      <c r="K386" s="20"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A387" s="40"/>
+      <c r="B387" s="20"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="39"/>
+      <c r="E387" s="9"/>
+      <c r="F387" s="20"/>
+      <c r="G387" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H387" s="39"/>
+      <c r="I387" s="9"/>
+      <c r="J387" s="11"/>
+      <c r="K387" s="20"/>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A388" s="40"/>
+      <c r="B388" s="20"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="39"/>
+      <c r="E388" s="9"/>
+      <c r="F388" s="20"/>
+      <c r="G388" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H388" s="39"/>
+      <c r="I388" s="9"/>
+      <c r="J388" s="11"/>
+      <c r="K388" s="20"/>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A389" s="40"/>
+      <c r="B389" s="20"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="39"/>
+      <c r="E389" s="9"/>
+      <c r="F389" s="20"/>
+      <c r="G389" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H389" s="39"/>
+      <c r="I389" s="9"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="20"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A390" s="40"/>
+      <c r="B390" s="20"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="39"/>
+      <c r="E390" s="9"/>
+      <c r="F390" s="20"/>
+      <c r="G390" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H390" s="39"/>
+      <c r="I390" s="9"/>
+      <c r="J390" s="11"/>
+      <c r="K390" s="20"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A391" s="40"/>
+      <c r="B391" s="20"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="39"/>
+      <c r="E391" s="9"/>
+      <c r="F391" s="20"/>
+      <c r="G391" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H391" s="39"/>
+      <c r="I391" s="9"/>
+      <c r="J391" s="11"/>
+      <c r="K391" s="20"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A392" s="40"/>
+      <c r="B392" s="20"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="39"/>
+      <c r="E392" s="9"/>
+      <c r="F392" s="20"/>
+      <c r="G392" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H392" s="39"/>
+      <c r="I392" s="9"/>
+      <c r="J392" s="11"/>
+      <c r="K392" s="20"/>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A393" s="40"/>
+      <c r="B393" s="20"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="39"/>
+      <c r="E393" s="9"/>
+      <c r="F393" s="20"/>
+      <c r="G393" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H393" s="39"/>
+      <c r="I393" s="9"/>
+      <c r="J393" s="11"/>
+      <c r="K393" s="20"/>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A394" s="41"/>
+      <c r="B394" s="15"/>
+      <c r="C394" s="42"/>
+      <c r="D394" s="43"/>
+      <c r="E394" s="9"/>
+      <c r="F394" s="15"/>
+      <c r="G394" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H394" s="43"/>
+      <c r="I394" s="9"/>
+      <c r="J394" s="12"/>
+      <c r="K394" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9892,11 +11284,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9919,15 +11311,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -9941,20 +11333,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="65" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="J1" s="66" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -9983,13 +11375,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.625</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>0</v>
       </c>
@@ -10003,27 +11391,29 @@
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>16</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>15</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10037,14 +11427,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10071,7 +11461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10097,7 +11487,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10123,7 +11513,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10149,7 +11539,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10175,7 +11565,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10201,7 +11591,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10227,7 +11617,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10253,7 +11643,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10273,7 +11663,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10293,7 +11683,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10313,7 +11703,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10334,7 +11724,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10355,7 +11745,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10376,7 +11766,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10397,7 +11787,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10418,7 +11808,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10439,7 +11829,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10460,7 +11850,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10481,7 +11871,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10502,7 +11892,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10523,7 +11913,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10544,7 +11934,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10565,7 +11955,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10586,7 +11976,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10607,7 +11997,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10628,7 +12018,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10649,7 +12039,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10670,7 +12060,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10691,7 +12081,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10712,7 +12102,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -10733,7 +12123,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -10742,7 +12132,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -10751,7 +12141,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -10760,7 +12150,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -10769,7 +12159,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -10778,7 +12168,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -10787,7 +12177,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -10796,7 +12186,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -10805,7 +12195,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -10814,7 +12204,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -10823,7 +12213,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -10832,7 +12222,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -10841,7 +12231,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -10850,7 +12240,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -10859,7 +12249,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -10868,7 +12258,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -10877,7 +12267,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -10886,7 +12276,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -10895,7 +12285,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -10904,7 +12294,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -10913,7 +12303,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -10922,7 +12312,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -10931,7 +12321,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -10940,7 +12330,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -10949,7 +12339,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -10958,7 +12348,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -10967,7 +12357,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -10976,7 +12366,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -10985,7 +12375,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -10994,7 +12384,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/NAVARRO, RITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/NAVARRO, RITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5404C3-22BE-4697-8424-B892CCFA412C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="149">
   <si>
     <t>PERIOD</t>
   </si>
@@ -476,12 +475,18 @@
   </si>
   <si>
     <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/25,26/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -882,6 +887,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,9 +925,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1369,7 +1374,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1417,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1481,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1541,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1607,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1670,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1768,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,7 +1827,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1892,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1930,7 +1935,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,7 +2010,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2196,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2262,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2320,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2386,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2442,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2512,7 +2517,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2560,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2626,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2677,7 +2682,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2775,7 +2780,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2838,7 +2843,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,25 +2909,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K394" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K394" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2934,13 +2939,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2949,14 +2954,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3260,7 +3265,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3270,7 +3275,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3278,97 +3283,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K394"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A308"/>
+      <pane ySplit="4050" topLeftCell="A308" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B316" sqref="B316"/>
+      <selection pane="bottomLeft" activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="57"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="62"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3376,7 +3381,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3389,24 +3394,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3441,7 +3446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3450,7 +3455,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>105.25899999999996</v>
+        <v>107.75899999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3460,12 +3465,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>237.875</v>
+        <v>238.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -3487,7 +3492,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>37880</v>
       </c>
@@ -3507,7 +3512,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>37895</v>
       </c>
@@ -3527,7 +3532,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>37926</v>
       </c>
@@ -3547,7 +3552,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>37956</v>
       </c>
@@ -3567,7 +3572,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -3585,7 +3590,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>37987</v>
       </c>
@@ -3605,7 +3610,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f>EDATE(A16,1)</f>
         <v>38018</v>
@@ -3626,7 +3631,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <f t="shared" ref="A18:A27" si="0">EDATE(A17,1)</f>
         <v>38047</v>
@@ -3647,7 +3652,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f t="shared" si="0"/>
         <v>38078</v>
@@ -3668,7 +3673,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f t="shared" si="0"/>
         <v>38108</v>
@@ -3689,7 +3694,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -3710,7 +3715,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="0"/>
         <v>38169</v>
@@ -3731,7 +3736,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="0"/>
         <v>38200</v>
@@ -3752,7 +3757,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>38231</v>
@@ -3773,7 +3778,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>38261</v>
@@ -3794,7 +3799,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>38292</v>
@@ -3815,7 +3820,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>38322</v>
@@ -3840,7 +3845,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>45</v>
       </c>
@@ -3858,7 +3863,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>38353</v>
       </c>
@@ -3878,7 +3883,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>38384</v>
@@ -3899,7 +3904,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" ref="A31:A41" si="1">EDATE(A30,1)</f>
         <v>38412</v>
@@ -3920,7 +3925,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -3941,7 +3946,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -3962,7 +3967,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>38504</v>
@@ -3983,7 +3988,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>38534</v>
@@ -4004,7 +4009,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="1"/>
         <v>38565</v>
@@ -4029,7 +4034,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>38596</v>
@@ -4054,7 +4059,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>38626</v>
@@ -4077,7 +4082,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>50</v>
@@ -4099,7 +4104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f>EDATE(A38,1)</f>
         <v>38657</v>
@@ -4120,7 +4125,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -4141,7 +4146,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="48" t="s">
         <v>52</v>
       </c>
@@ -4159,7 +4164,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>38718</v>
       </c>
@@ -4181,7 +4186,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13">
@@ -4199,7 +4204,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f>EDATE(A43,1)</f>
         <v>38749</v>
@@ -4220,7 +4225,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" ref="A46:A55" si="2">EDATE(A45,1)</f>
         <v>38777</v>
@@ -4241,7 +4246,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>38808</v>
@@ -4262,7 +4267,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <f t="shared" si="2"/>
         <v>38838</v>
@@ -4283,7 +4288,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f t="shared" si="2"/>
         <v>38869</v>
@@ -4304,7 +4309,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>38899</v>
@@ -4325,7 +4330,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>38930</v>
@@ -4346,7 +4351,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>38961</v>
@@ -4371,7 +4376,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4389,7 +4394,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>38991</v>
@@ -4410,7 +4415,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>39022</v>
@@ -4431,7 +4436,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A55,1)</f>
         <v>39052</v>
@@ -4456,7 +4461,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="48" t="s">
         <v>57</v>
       </c>
@@ -4474,7 +4479,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>39083</v>
       </c>
@@ -4494,7 +4499,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f>EDATE(A58,1)</f>
         <v>39114</v>
@@ -4515,7 +4520,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" ref="A60:A69" si="3">EDATE(A59,1)</f>
         <v>39142</v>
@@ -4536,7 +4541,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>39173</v>
@@ -4557,7 +4562,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>39203</v>
@@ -4582,7 +4587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -4600,7 +4605,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f>EDATE(A62,1)</f>
         <v>39234</v>
@@ -4621,7 +4626,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>39264</v>
@@ -4642,7 +4647,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>39295</v>
@@ -4663,7 +4668,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>39326</v>
@@ -4684,7 +4689,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>39356</v>
@@ -4705,7 +4710,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>39387</v>
@@ -4726,7 +4731,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f>EDATE(A69,1)</f>
         <v>39417</v>
@@ -4749,7 +4754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>46</v>
@@ -4771,7 +4776,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>58</v>
       </c>
@@ -4789,7 +4794,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>39448</v>
       </c>
@@ -4809,7 +4814,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <f>EDATE(A73,1)</f>
         <v>39479</v>
@@ -4830,7 +4835,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f t="shared" ref="A75:A85" si="4">EDATE(A74,1)</f>
         <v>39508</v>
@@ -4851,7 +4856,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f t="shared" si="4"/>
         <v>39539</v>
@@ -4872,7 +4877,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" si="4"/>
         <v>39569</v>
@@ -4893,7 +4898,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>39600</v>
@@ -4914,7 +4919,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>39630</v>
@@ -4935,7 +4940,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>39661</v>
@@ -4956,7 +4961,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>39692</v>
@@ -4981,7 +4986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -4999,7 +5004,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f>EDATE(A81,1)</f>
         <v>39722</v>
@@ -5020,7 +5025,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A83,1)</f>
         <v>39753</v>
@@ -5041,7 +5046,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>39783</v>
@@ -5062,7 +5067,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>64</v>
       </c>
@@ -5080,7 +5085,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>39814</v>
       </c>
@@ -5100,7 +5105,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A87,1)</f>
         <v>39845</v>
@@ -5125,7 +5130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13">
@@ -5143,7 +5148,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f>EDATE(A88,1)</f>
         <v>39873</v>
@@ -5164,7 +5169,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" ref="A91:A104" si="5">EDATE(A90,1)</f>
         <v>39904</v>
@@ -5185,7 +5190,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>39934</v>
@@ -5206,7 +5211,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>39965</v>
@@ -5229,7 +5234,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>67</v>
@@ -5249,7 +5254,7 @@
         <v>42887</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13">
@@ -5267,7 +5272,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f>EDATE(A93,1)</f>
         <v>39995</v>
@@ -5292,7 +5297,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>68</v>
@@ -5314,7 +5319,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f>EDATE(A96,1)</f>
         <v>40026</v>
@@ -5339,7 +5344,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>69</v>
@@ -5361,7 +5366,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f>EDATE(A98,1)</f>
         <v>40057</v>
@@ -5386,7 +5391,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>67</v>
@@ -5408,7 +5413,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13">
@@ -5426,7 +5431,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A100,1)</f>
         <v>40087</v>
@@ -5447,7 +5452,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>40118</v>
@@ -5468,7 +5473,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f>EDATE(A104,1)</f>
         <v>40148</v>
@@ -5493,7 +5498,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>74</v>
@@ -5515,7 +5520,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>75</v>
       </c>
@@ -5533,7 +5538,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>40179</v>
       </c>
@@ -5555,7 +5560,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>76</v>
@@ -5575,7 +5580,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>78</v>
@@ -5597,7 +5602,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A108,1)</f>
         <v>40210</v>
@@ -5622,7 +5627,7 @@
         <v>42036</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>79</v>
@@ -5644,7 +5649,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f>EDATE(A111,1)</f>
         <v>40238</v>
@@ -5669,7 +5674,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5687,7 +5692,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f>EDATE(A113,1)</f>
         <v>40269</v>
@@ -5712,7 +5717,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" ref="A116:A122" si="6">EDATE(A115,1)</f>
         <v>40299</v>
@@ -5739,7 +5744,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>40330</v>
@@ -5760,7 +5765,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="6"/>
         <v>40360</v>
@@ -5781,7 +5786,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="6"/>
         <v>40391</v>
@@ -5806,7 +5811,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="6"/>
         <v>40422</v>
@@ -5827,7 +5832,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="6"/>
         <v>40452</v>
@@ -5848,7 +5853,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="6"/>
         <v>40483</v>
@@ -5869,7 +5874,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A122,1)</f>
         <v>40513</v>
@@ -5890,7 +5895,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="48" t="s">
         <v>84</v>
       </c>
@@ -5908,7 +5913,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>40544</v>
       </c>
@@ -5928,7 +5933,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A125,1)</f>
         <v>40575</v>
@@ -5953,7 +5958,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" ref="A127:A137" si="7">EDATE(A126,1)</f>
         <v>40603</v>
@@ -5978,7 +5983,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>40634</v>
@@ -5999,7 +6004,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>40664</v>
@@ -6020,7 +6025,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>40695</v>
@@ -6041,7 +6046,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="7"/>
         <v>40725</v>
@@ -6062,7 +6067,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A131,1)</f>
         <v>40756</v>
@@ -6083,7 +6088,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>40787</v>
@@ -6104,7 +6109,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>40817</v>
@@ -6127,7 +6132,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -6145,7 +6150,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f>EDATE(A134,1)</f>
         <v>40848</v>
@@ -6166,7 +6171,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>40878</v>
@@ -6191,7 +6196,7 @@
         <v>46357</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>66</v>
@@ -6211,7 +6216,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>138</v>
@@ -6231,7 +6236,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="48" t="s">
         <v>87</v>
       </c>
@@ -6249,7 +6254,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>40909</v>
       </c>
@@ -6271,7 +6276,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13">
@@ -6289,7 +6294,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A141,1)</f>
         <v>40940</v>
@@ -6310,7 +6315,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A155" si="8">EDATE(A143,1)</f>
         <v>40969</v>
@@ -6335,7 +6340,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -6353,7 +6358,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>41000</v>
@@ -6374,7 +6379,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -6395,7 +6400,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="8"/>
         <v>41061</v>
@@ -6416,7 +6421,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -6437,7 +6442,7 @@
       <c r="J149" s="12"/>
       <c r="K149" s="15"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="8"/>
         <v>41122</v>
@@ -6462,7 +6467,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -6487,7 +6492,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13">
@@ -6505,7 +6510,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f>EDATE(A151,1)</f>
         <v>41183</v>
@@ -6526,7 +6531,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="8"/>
         <v>41214</v>
@@ -6547,7 +6552,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f t="shared" si="8"/>
         <v>41244</v>
@@ -6572,7 +6577,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>96</v>
       </c>
@@ -6590,7 +6595,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>41275</v>
       </c>
@@ -6612,7 +6617,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13">
@@ -6630,7 +6635,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>41306</v>
@@ -6651,7 +6656,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f t="shared" ref="A160:A168" si="9">EDATE(A159,1)</f>
         <v>41334</v>
@@ -6672,7 +6677,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="9"/>
         <v>41365</v>
@@ -6693,7 +6698,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="9"/>
         <v>41395</v>
@@ -6714,7 +6719,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="9"/>
         <v>41426</v>
@@ -6735,7 +6740,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="9"/>
         <v>41456</v>
@@ -6760,7 +6765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13">
@@ -6778,7 +6783,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f>EDATE(A164,1)</f>
         <v>41487</v>
@@ -6799,7 +6804,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="9"/>
         <v>41518</v>
@@ -6820,7 +6825,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="9"/>
         <v>41548</v>
@@ -6845,7 +6850,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>66</v>
@@ -6863,7 +6868,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13">
@@ -6881,7 +6886,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A168,1)</f>
         <v>41579</v>
@@ -6902,7 +6907,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A171,1)</f>
         <v>41609</v>
@@ -6927,7 +6932,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="54" t="s">
         <v>97</v>
       </c>
@@ -6945,7 +6950,7 @@
       <c r="J173" s="12"/>
       <c r="K173" s="15"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>41640</v>
       </c>
@@ -6969,7 +6974,7 @@
         <v>44934</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13">
@@ -6987,7 +6992,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A174,1)</f>
         <v>41671</v>
@@ -7012,7 +7017,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" ref="A177:A187" si="10">EDATE(A176,1)</f>
         <v>41699</v>
@@ -7039,7 +7044,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -7060,7 +7065,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -7081,7 +7086,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -7102,7 +7107,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -7123,7 +7128,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -7144,7 +7149,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -7167,7 +7172,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13">
@@ -7185,7 +7190,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f>EDATE(A183,1)</f>
         <v>41913</v>
@@ -7206,7 +7211,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A185,1)</f>
         <v>41944</v>
@@ -7227,7 +7232,7 @@
       <c r="J186" s="12"/>
       <c r="K186" s="15"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -7254,7 +7259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="48" t="s">
         <v>102</v>
       </c>
@@ -7272,7 +7277,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>42005</v>
       </c>
@@ -7298,7 +7303,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f>EDATE(A189,1)</f>
         <v>42036</v>
@@ -7319,7 +7324,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" ref="A191:A200" si="11">EDATE(A190,1)</f>
         <v>42064</v>
@@ -7340,7 +7345,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="11"/>
         <v>42095</v>
@@ -7361,7 +7366,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="11"/>
         <v>42125</v>
@@ -7382,7 +7387,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="11"/>
         <v>42156</v>
@@ -7403,7 +7408,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="11"/>
         <v>42186</v>
@@ -7424,7 +7429,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="11"/>
         <v>42217</v>
@@ -7449,7 +7454,7 @@
         <v>45149</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13">
@@ -7467,7 +7472,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A196,1)</f>
         <v>42248</v>
@@ -7488,7 +7493,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="11"/>
         <v>42278</v>
@@ -7515,7 +7520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="11"/>
         <v>42309</v>
@@ -7536,7 +7541,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>42339</v>
@@ -7557,7 +7562,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="48" t="s">
         <v>103</v>
       </c>
@@ -7575,7 +7580,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>42370</v>
       </c>
@@ -7601,7 +7606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>42401</v>
@@ -7622,7 +7627,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <f t="shared" ref="A205:A214" si="12">EDATE(A204,1)</f>
         <v>42430</v>
@@ -7643,7 +7648,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f t="shared" si="12"/>
         <v>42461</v>
@@ -7664,7 +7669,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" si="12"/>
         <v>42491</v>
@@ -7685,7 +7690,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="12"/>
         <v>42522</v>
@@ -7712,7 +7717,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="12"/>
         <v>42552</v>
@@ -7733,7 +7738,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="12"/>
         <v>42583</v>
@@ -7754,7 +7759,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="12"/>
         <v>42614</v>
@@ -7775,7 +7780,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="12"/>
         <v>42644</v>
@@ -7796,7 +7801,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="12"/>
         <v>42675</v>
@@ -7817,7 +7822,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="12"/>
         <v>42705</v>
@@ -7844,7 +7849,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="48" t="s">
         <v>104</v>
       </c>
@@ -7862,7 +7867,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>42736</v>
       </c>
@@ -7886,7 +7891,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A216,1)</f>
         <v>42767</v>
@@ -7907,7 +7912,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f t="shared" ref="A218:A229" si="13">EDATE(A217,1)</f>
         <v>42795</v>
@@ -7928,7 +7933,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f t="shared" si="13"/>
         <v>42826</v>
@@ -7949,7 +7954,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" si="13"/>
         <v>42856</v>
@@ -7970,7 +7975,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="13"/>
         <v>42887</v>
@@ -7991,7 +7996,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="13"/>
         <v>42917</v>
@@ -8012,7 +8017,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="13"/>
         <v>42948</v>
@@ -8033,7 +8038,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="13"/>
         <v>42979</v>
@@ -8058,7 +8063,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13">
@@ -8076,7 +8081,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>43009</v>
@@ -8101,7 +8106,7 @@
         <v>11232</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13">
@@ -8119,7 +8124,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A226,1)</f>
         <v>43040</v>
@@ -8140,7 +8145,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <f t="shared" si="13"/>
         <v>43070</v>
@@ -8165,7 +8170,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>115</v>
@@ -8187,7 +8192,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13">
@@ -8205,7 +8210,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="48" t="s">
         <v>116</v>
       </c>
@@ -8223,7 +8228,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>43101</v>
       </c>
@@ -8247,7 +8252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>66</v>
@@ -8267,7 +8272,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13">
@@ -8285,7 +8290,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="41">
         <f>EDATE(A233,1)</f>
         <v>43132</v>
@@ -8306,7 +8311,7 @@
       <c r="J236" s="12"/>
       <c r="K236" s="15"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="41">
         <f t="shared" ref="A237:A252" si="14">EDATE(A236,1)</f>
         <v>43160</v>
@@ -8331,7 +8336,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>76</v>
@@ -8351,7 +8356,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20"/>
       <c r="C239" s="13">
@@ -8369,7 +8374,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="41">
         <f>EDATE(A237,1)</f>
         <v>43191</v>
@@ -8394,7 +8399,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13">
@@ -8412,7 +8417,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="41">
         <f>EDATE(A240,1)</f>
         <v>43221</v>
@@ -8437,7 +8442,7 @@
         <v>45053</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>120</v>
@@ -8459,7 +8464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13">
@@ -8477,7 +8482,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="41">
         <f>EDATE(A242,1)</f>
         <v>43252</v>
@@ -8502,7 +8507,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20"/>
       <c r="C246" s="13">
@@ -8520,7 +8525,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="41">
         <f>EDATE(A245,1)</f>
         <v>43282</v>
@@ -8541,7 +8546,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="41">
         <f t="shared" si="14"/>
         <v>43313</v>
@@ -8562,7 +8567,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="41">
         <f t="shared" si="14"/>
         <v>43344</v>
@@ -8583,7 +8588,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="41">
         <f t="shared" si="14"/>
         <v>43374</v>
@@ -8604,7 +8609,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="41">
         <f t="shared" si="14"/>
         <v>43405</v>
@@ -8625,7 +8630,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="41">
         <f t="shared" si="14"/>
         <v>43435</v>
@@ -8646,7 +8651,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="54" t="s">
         <v>123</v>
       </c>
@@ -8664,7 +8669,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>43466</v>
       </c>
@@ -8688,7 +8693,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13">
@@ -8706,7 +8711,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A254,1)</f>
         <v>43497</v>
@@ -8727,7 +8732,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <f t="shared" ref="A257:A270" si="15">EDATE(A256,1)</f>
         <v>43525</v>
@@ -8748,7 +8753,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f t="shared" si="15"/>
         <v>43556</v>
@@ -8769,7 +8774,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="15"/>
         <v>43586</v>
@@ -8794,7 +8799,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20"/>
       <c r="C260" s="13">
@@ -8812,7 +8817,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>43617</v>
@@ -8835,7 +8840,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>125</v>
@@ -8857,7 +8862,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20"/>
       <c r="C263" s="13">
@@ -8875,7 +8880,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>43647</v>
@@ -8896,7 +8901,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="15"/>
         <v>43678</v>
@@ -8917,7 +8922,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="15"/>
         <v>43709</v>
@@ -8938,7 +8943,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="15"/>
         <v>43739</v>
@@ -8961,7 +8966,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20"/>
       <c r="C268" s="13">
@@ -8979,7 +8984,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f>EDATE(A267,1)</f>
         <v>43770</v>
@@ -9000,7 +9005,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="15"/>
         <v>43800</v>
@@ -9025,7 +9030,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="48" t="s">
         <v>129</v>
       </c>
@@ -9043,7 +9048,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>43831</v>
       </c>
@@ -9063,7 +9068,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A272,1)</f>
         <v>43862</v>
@@ -9086,7 +9091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20"/>
       <c r="C274" s="13">
@@ -9104,7 +9109,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>43891</v>
@@ -9125,7 +9130,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <f t="shared" ref="A276:A283" si="16">EDATE(A275,1)</f>
         <v>43922</v>
@@ -9146,7 +9151,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f t="shared" si="16"/>
         <v>43952</v>
@@ -9167,7 +9172,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f t="shared" si="16"/>
         <v>43983</v>
@@ -9188,7 +9193,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" si="16"/>
         <v>44013</v>
@@ -9209,7 +9214,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" si="16"/>
         <v>44044</v>
@@ -9230,7 +9235,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f t="shared" si="16"/>
         <v>44075</v>
@@ -9251,7 +9256,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="16"/>
         <v>44105</v>
@@ -9272,7 +9277,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="16"/>
         <v>44136</v>
@@ -9293,7 +9298,7 @@
       <c r="J283" s="12"/>
       <c r="K283" s="15"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f>EDATE(A283,1)</f>
         <v>44166</v>
@@ -9318,7 +9323,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20"/>
       <c r="C285" s="13">
@@ -9336,7 +9341,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="48" t="s">
         <v>133</v>
       </c>
@@ -9354,7 +9359,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>44197</v>
       </c>
@@ -9376,7 +9381,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20"/>
       <c r="C288" s="13">
@@ -9394,7 +9399,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A287,1)</f>
         <v>44228</v>
@@ -9417,7 +9422,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20"/>
       <c r="C290" s="13">
@@ -9435,7 +9440,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f>EDATE(A289,1)</f>
         <v>44256</v>
@@ -9456,7 +9461,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <f t="shared" ref="A292:A300" si="17">EDATE(A291,1)</f>
         <v>44287</v>
@@ -9477,7 +9482,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f t="shared" si="17"/>
         <v>44317</v>
@@ -9498,7 +9503,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" si="17"/>
         <v>44348</v>
@@ -9519,7 +9524,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="17"/>
         <v>44378</v>
@@ -9540,7 +9545,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="17"/>
         <v>44409</v>
@@ -9561,7 +9566,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="17"/>
         <v>44440</v>
@@ -9582,7 +9587,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="17"/>
         <v>44470</v>
@@ -9603,7 +9608,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A298,1)</f>
         <v>44501</v>
@@ -9624,7 +9629,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="17"/>
         <v>44531</v>
@@ -9649,7 +9654,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="48" t="s">
         <v>135</v>
       </c>
@@ -9667,7 +9672,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>44562</v>
       </c>
@@ -9687,7 +9692,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A302,1)</f>
         <v>44593</v>
@@ -9708,7 +9713,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <f t="shared" ref="A304:A309" si="18">EDATE(A303,1)</f>
         <v>44621</v>
@@ -9729,7 +9734,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f t="shared" si="18"/>
         <v>44652</v>
@@ -9750,7 +9755,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f t="shared" si="18"/>
         <v>44682</v>
@@ -9771,7 +9776,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" si="18"/>
         <v>44713</v>
@@ -9792,7 +9797,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="18"/>
         <v>44743</v>
@@ -9813,7 +9818,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f t="shared" si="18"/>
         <v>44774</v>
@@ -9840,7 +9845,7 @@
         <v>44789</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>44805</v>
       </c>
@@ -9864,7 +9869,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>141</v>
@@ -9886,7 +9891,7 @@
         <v>44814</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>44835</v>
       </c>
@@ -9910,7 +9915,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>44866</v>
       </c>
@@ -9930,7 +9935,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>44896</v>
       </c>
@@ -9956,7 +9961,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="48" t="s">
         <v>136</v>
       </c>
@@ -9974,7 +9979,7 @@
       <c r="J315" s="12"/>
       <c r="K315" s="15"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>44927</v>
       </c>
@@ -9994,11 +9999,11 @@
       <c r="H316" s="43"/>
       <c r="I316" s="53"/>
       <c r="J316" s="12"/>
-      <c r="K316" s="68">
+      <c r="K316" s="56">
         <v>44951</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>44958</v>
       </c>
@@ -10018,47 +10023,53 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>44986</v>
       </c>
       <c r="B318" s="20"/>
-      <c r="C318" s="13"/>
+      <c r="C318" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G318" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H318" s="39"/>
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>45017</v>
       </c>
       <c r="B319" s="20"/>
-      <c r="C319" s="13"/>
+      <c r="C319" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G319" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>45047</v>
       </c>
-      <c r="B320" s="20"/>
+      <c r="B320" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
       <c r="E320" s="9"/>
@@ -10067,12 +10078,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H320" s="39"/>
+      <c r="H320" s="39">
+        <v>2</v>
+      </c>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="20"/>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K320" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>45078</v>
       </c>
@@ -10090,7 +10105,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>45108</v>
       </c>
@@ -10108,7 +10123,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>45139</v>
       </c>
@@ -10126,7 +10141,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>45170</v>
       </c>
@@ -10144,7 +10159,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>45200</v>
       </c>
@@ -10162,7 +10177,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>45231</v>
       </c>
@@ -10180,7 +10195,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>45261</v>
       </c>
@@ -10198,7 +10213,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20"/>
       <c r="C328" s="13"/>
@@ -10214,7 +10229,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
@@ -10230,7 +10245,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20"/>
       <c r="C330" s="13"/>
@@ -10246,7 +10261,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
@@ -10262,7 +10277,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20"/>
       <c r="C332" s="13"/>
@@ -10278,7 +10293,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20"/>
       <c r="C333" s="13"/>
@@ -10294,7 +10309,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
@@ -10310,7 +10325,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20"/>
       <c r="C335" s="13"/>
@@ -10326,7 +10341,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
@@ -10342,7 +10357,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13"/>
@@ -10358,7 +10373,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20"/>
       <c r="C338" s="13"/>
@@ -10374,7 +10389,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
@@ -10390,7 +10405,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20"/>
       <c r="C340" s="13"/>
@@ -10406,7 +10421,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -10422,7 +10437,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20"/>
       <c r="C342" s="13"/>
@@ -10438,7 +10453,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20"/>
       <c r="C343" s="13"/>
@@ -10454,7 +10469,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20"/>
       <c r="C344" s="13"/>
@@ -10470,7 +10485,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
@@ -10486,7 +10501,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20"/>
       <c r="C346" s="13"/>
@@ -10502,7 +10517,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20"/>
       <c r="C347" s="13"/>
@@ -10518,7 +10533,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20"/>
       <c r="C348" s="13"/>
@@ -10534,7 +10549,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20"/>
       <c r="C349" s="13"/>
@@ -10550,7 +10565,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20"/>
       <c r="C350" s="13"/>
@@ -10566,7 +10581,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20"/>
       <c r="C351" s="13"/>
@@ -10582,7 +10597,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20"/>
       <c r="C352" s="13"/>
@@ -10598,7 +10613,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
@@ -10614,7 +10629,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20"/>
       <c r="C354" s="13"/>
@@ -10630,7 +10645,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20"/>
       <c r="C355" s="13"/>
@@ -10646,7 +10661,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20"/>
       <c r="C356" s="13"/>
@@ -10662,7 +10677,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20"/>
       <c r="C357" s="13"/>
@@ -10678,7 +10693,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20"/>
       <c r="C358" s="13"/>
@@ -10694,7 +10709,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
@@ -10710,7 +10725,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13"/>
@@ -10726,7 +10741,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20"/>
       <c r="C361" s="13"/>
@@ -10742,7 +10757,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20"/>
       <c r="C362" s="13"/>
@@ -10758,7 +10773,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20"/>
       <c r="C363" s="13"/>
@@ -10774,7 +10789,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
@@ -10790,7 +10805,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -10806,7 +10821,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20"/>
       <c r="C366" s="13"/>
@@ -10822,7 +10837,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
@@ -10838,7 +10853,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -10854,7 +10869,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -10870,7 +10885,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -10886,7 +10901,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -10902,7 +10917,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -10918,7 +10933,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -10934,7 +10949,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -10950,7 +10965,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -10966,7 +10981,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -10982,7 +10997,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -10998,7 +11013,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -11014,7 +11029,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -11030,7 +11045,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -11046,7 +11061,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -11062,7 +11077,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11078,7 +11093,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40"/>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -11094,7 +11109,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -11110,7 +11125,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -11126,7 +11141,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -11142,7 +11157,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
@@ -11158,7 +11173,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20"/>
       <c r="C388" s="13"/>
@@ -11174,7 +11189,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20"/>
       <c r="C389" s="13"/>
@@ -11190,7 +11205,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20"/>
       <c r="C390" s="13"/>
@@ -11206,7 +11221,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20"/>
       <c r="C391" s="13"/>
@@ -11222,7 +11237,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20"/>
       <c r="C392" s="13"/>
@@ -11238,7 +11253,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20"/>
       <c r="C393" s="13"/>
@@ -11254,7 +11269,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="41"/>
       <c r="B394" s="15"/>
       <c r="C394" s="42"/>
@@ -11285,10 +11300,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11311,7 +11326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -11319,34 +11334,34 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="66" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -11375,7 +11390,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -11403,17 +11418,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -11427,14 +11442,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -11461,7 +11476,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -11487,7 +11502,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -11513,7 +11528,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -11539,7 +11554,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -11565,7 +11580,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -11591,7 +11606,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -11617,7 +11632,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -11643,7 +11658,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -11663,7 +11678,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -11683,7 +11698,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -11703,7 +11718,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -11724,7 +11739,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -11745,7 +11760,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -11766,7 +11781,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -11787,7 +11802,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -11808,7 +11823,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -11829,7 +11844,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -11850,7 +11865,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -11871,7 +11886,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -11892,7 +11907,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -11913,7 +11928,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -11934,7 +11949,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -11955,7 +11970,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -11976,7 +11991,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -11997,7 +12012,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -12018,7 +12033,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -12039,7 +12054,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -12060,7 +12075,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -12081,7 +12096,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -12102,7 +12117,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -12123,7 +12138,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -12132,7 +12147,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -12141,7 +12156,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -12150,7 +12165,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -12159,7 +12174,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -12168,7 +12183,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -12177,7 +12192,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -12186,7 +12201,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -12195,7 +12210,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -12204,7 +12219,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -12213,7 +12228,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -12222,7 +12237,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -12231,7 +12246,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -12240,7 +12255,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -12249,7 +12264,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -12258,7 +12273,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -12267,7 +12282,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -12276,7 +12291,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -12285,7 +12300,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -12294,7 +12309,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -12303,7 +12318,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -12312,7 +12327,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -12321,7 +12336,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -12330,7 +12345,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -12339,7 +12354,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -12348,7 +12363,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -12357,7 +12372,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -12366,7 +12381,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -12375,7 +12390,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -12384,7 +12399,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
